--- a/financial_report/MSFT_financial_report.xlsx
+++ b/financial_report/MSFT_financial_report.xlsx
@@ -247,94 +247,94 @@
     <t>Published Time(New York time)</t>
   </si>
   <si>
-    <t>Jeff Bezos-Led Amazon Almost Ran Out Of Cash 24 Years Ago. At $400B, It Is Now Projected To Have As Much Cash As Apple And Microsoft Combined By 2027: Here's More</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/jeff-bezos-led-amazon-almost-232517745.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:25:17-04:00</t>
-  </si>
-  <si>
-    <t>Why AMD Stock Sank Today</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/m/2b68055d-e932-3495-895c-d470b6539b8c/why-amd-stock-sank-today.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 19:08:40-04:00</t>
-  </si>
-  <si>
-    <t>Delta Promises To End The Year On A Strong Note</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/delta-promises-end-strong-note-205641459.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:56:41-04:00</t>
-  </si>
-  <si>
-    <t>Microsoft (NASDAQ:MSFT): Leading the AI Revolution and Driving Tech Growth</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/microsoft-nasdaq-msft-leading-ai-203201389.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:32:01-04:00</t>
-  </si>
-  <si>
-    <t>Microsoft announces quarterly earnings release date</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/microsoft-announces-quarterly-earnings-release-200600499.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 16:06:00-04:00</t>
-  </si>
-  <si>
-    <t>Sector Update: Tech Stocks Fall Late Afternoon</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/sector-tech-stocks-fall-afternoon-195259587.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 15:52:59-04:00</t>
-  </si>
-  <si>
-    <t>Sector Update: Tech</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/sector-tech-193558706.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 15:35:58-04:00</t>
-  </si>
-  <si>
-    <t>Microsoft Unveils AI-Powered Innovations for Healthcare Cloud</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/news/microsoft-unveils-ai-powered-innovations-165740730.html</t>
-  </si>
-  <si>
-    <t>2024-10-10 12:57:40-04:00</t>
+    <t>Is Palantir Stock Too Expensive at $43?</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/e7b285f9-5bd7-38b4-8ea8-6eb2ce17b6c3/is-palantir-stock-too.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 20:00:00-04:00</t>
+  </si>
+  <si>
+    <t>Microsoft (NasdaqGS:MSFT) Unveils AI Innovations in Healthcare, Strengthening Strategic Alliances</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/microsoft-0-nasdaqgs-msft-name-220519399.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 18:05:19-04:00</t>
+  </si>
+  <si>
+    <t>Microsoft (NasdaqGS:MSFT) expands healthcare AI with new Azure models, enhancing strategic alliances</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/microsoft-0-nasdaqgs-msft-name-210729634.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 17:07:29-04:00</t>
+  </si>
+  <si>
+    <t>OpenAI snatches up Microsoft generative AI research lead</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/e8266045-39a5-3b24-a89c-ac22d84fa56d/openai-snatches-up-microsoft.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:56:59-04:00</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation (MSFT): A Leading Tech Stock for Retirement Portfolios</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/microsoft-corporation-msft-leading-tech-201312803.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:13:12-04:00</t>
+  </si>
+  <si>
+    <t>Microsoft (NasdaqGS:MSFT) unveils healthcare AI innovations, strengthening strategic alliances and growth.</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/microsoft-nasdaqgs-msft-unveils-healthcare-200727623.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 16:07:27-04:00</t>
+  </si>
+  <si>
+    <t>Microsoft (NasdaqGS:MSFT) Unveils Healthcare AI Innovations, Strengthening Strategic Alliances for Growth</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/news/microsoft-nasdaqgs-msft-unveils-healthcare-190527385.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 15:05:27-04:00</t>
+  </si>
+  <si>
+    <t>Intel, AMD Create Advisory Group to Shape Future of X86 Architecture</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com/m/6b9c72b3-8660-3e0d-b598-64cdec7b14f7/intel%2C-amd-create-advisory.html</t>
+  </si>
+  <si>
+    <t>2024-10-15 15:05:00-04:00</t>
   </si>
   <si>
     <t>Sentiment in Last 1 Month</t>
   </si>
   <si>
-    <t>-0.7184</t>
+    <t>-0.6808</t>
   </si>
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>2024-09-11</t>
+    <t>2024-09-16</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-16</t>
   </si>
 </sst>
 </file>
@@ -831,22 +831,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="B2">
-        <v>328.7424437403516</v>
+        <v>328.5835928745065</v>
       </c>
       <c r="C2">
-        <v>330.3404648295005</v>
+        <v>333.6356979150407</v>
       </c>
       <c r="D2">
-        <v>326.6878884689017</v>
+        <v>328.1369636471986</v>
       </c>
       <c r="E2">
-        <v>329.9434509277344</v>
+        <v>330.1617736816406</v>
       </c>
       <c r="F2">
-        <v>20063200</v>
+        <v>22158000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -857,22 +857,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="B3">
-        <v>328.107178822101</v>
+        <v>327.134521116799</v>
       </c>
       <c r="C3">
-        <v>331.1443786403169</v>
+        <v>330.9756844210626</v>
       </c>
       <c r="D3">
-        <v>326.2709557226689</v>
+        <v>324.9707695832157</v>
       </c>
       <c r="E3">
-        <v>328.6927795410156</v>
+        <v>329.5861206054688</v>
       </c>
       <c r="F3">
-        <v>19313100</v>
+        <v>18338500</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>45212</v>
+        <v>45217</v>
       </c>
       <c r="B4">
-        <v>329.9037730618384</v>
+        <v>330.0129083871524</v>
       </c>
       <c r="C4">
-        <v>331.3429523842824</v>
+        <v>333.0898191522493</v>
       </c>
       <c r="D4">
-        <v>323.9286026903067</v>
+        <v>325.8541218598858</v>
       </c>
       <c r="E4">
-        <v>325.2884216308594</v>
+        <v>327.650634765625</v>
       </c>
       <c r="F4">
-        <v>21072400</v>
+        <v>23153600</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -909,22 +909,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>45215</v>
+        <v>45218</v>
       </c>
       <c r="B5">
-        <v>328.5835928745065</v>
+        <v>329.6754265828691</v>
       </c>
       <c r="C5">
-        <v>333.6356979150407</v>
+        <v>334.3701982773264</v>
       </c>
       <c r="D5">
-        <v>328.1369636471986</v>
+        <v>328.4446744618753</v>
       </c>
       <c r="E5">
-        <v>330.1617736816406</v>
+        <v>328.8516235351562</v>
       </c>
       <c r="F5">
-        <v>22158000</v>
+        <v>25052100</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -935,22 +935,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>45216</v>
+        <v>45219</v>
       </c>
       <c r="B6">
-        <v>327.1344908262234</v>
+        <v>329.248662616912</v>
       </c>
       <c r="C6">
-        <v>330.9756537748198</v>
+        <v>329.4471847181714</v>
       </c>
       <c r="D6">
-        <v>324.9707394929898</v>
+        <v>323.0253854862675</v>
       </c>
       <c r="E6">
-        <v>329.5860900878906</v>
+        <v>324.2362976074219</v>
       </c>
       <c r="F6">
-        <v>18338500</v>
+        <v>25012600</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>45217</v>
+        <v>45222</v>
       </c>
       <c r="B7">
-        <v>330.0129083871524</v>
+        <v>323.0451932234391</v>
       </c>
       <c r="C7">
-        <v>333.0898191522493</v>
+        <v>330.2511146562719</v>
       </c>
       <c r="D7">
-        <v>325.8541218598858</v>
+        <v>321.973252738578</v>
       </c>
       <c r="E7">
-        <v>327.650634765625</v>
+        <v>326.8665161132812</v>
       </c>
       <c r="F7">
-        <v>23153600</v>
+        <v>24374700</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -987,22 +987,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>45218</v>
+        <v>45223</v>
       </c>
       <c r="B8">
-        <v>329.6754571768965</v>
+        <v>328.8317573725575</v>
       </c>
       <c r="C8">
-        <v>334.3702293070307</v>
+        <v>329.3677427796377</v>
       </c>
       <c r="D8">
-        <v>328.4447049416884</v>
+        <v>325.1593410549649</v>
       </c>
       <c r="E8">
-        <v>328.8516540527344</v>
+        <v>328.0675048828125</v>
       </c>
       <c r="F8">
-        <v>25052100</v>
+        <v>31153600</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B9">
-        <v>329.248662616912</v>
+        <v>342.4495254607261</v>
       </c>
       <c r="C9">
-        <v>329.4471847181714</v>
+        <v>343.6207572602337</v>
       </c>
       <c r="D9">
-        <v>323.0253854862675</v>
+        <v>335.1046629050586</v>
       </c>
       <c r="E9">
-        <v>324.2362976074219</v>
+        <v>338.1319580078125</v>
       </c>
       <c r="F9">
-        <v>25012600</v>
+        <v>55053800</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1039,22 +1039,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B10">
-        <v>323.0451932234391</v>
+        <v>338.0029548956393</v>
       </c>
       <c r="C10">
-        <v>330.2511146562719</v>
+        <v>339.0848306629145</v>
       </c>
       <c r="D10">
-        <v>321.973252738578</v>
+        <v>324.5042700590803</v>
       </c>
       <c r="E10">
-        <v>326.8665161132812</v>
+        <v>325.4472045898438</v>
       </c>
       <c r="F10">
-        <v>24374700</v>
+        <v>37828500</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1065,22 +1065,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>45223</v>
+        <v>45226</v>
       </c>
       <c r="B11">
-        <v>328.8317267838869</v>
+        <v>327.9682508373861</v>
       </c>
       <c r="C11">
-        <v>329.3677121411085</v>
+        <v>334.2113980878065</v>
       </c>
       <c r="D11">
-        <v>325.1593108079107</v>
+        <v>325.9533757848623</v>
       </c>
       <c r="E11">
-        <v>328.0674743652344</v>
+        <v>327.3528747558594</v>
       </c>
       <c r="F11">
-        <v>31153600</v>
+        <v>29856500</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1091,22 +1091,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="B12">
-        <v>342.4495254607261</v>
+        <v>330.9260586024756</v>
       </c>
       <c r="C12">
-        <v>343.6207572602337</v>
+        <v>336.9210683494595</v>
       </c>
       <c r="D12">
-        <v>335.1046629050586</v>
+        <v>329.3578128320324</v>
       </c>
       <c r="E12">
-        <v>338.1319580078125</v>
+        <v>334.7969970703125</v>
       </c>
       <c r="F12">
-        <v>55053800</v>
+        <v>22828100</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B13">
-        <v>338.0029232006933</v>
+        <v>336.3255414628046</v>
       </c>
       <c r="C13">
-        <v>339.0847988665197</v>
+        <v>336.474417890553</v>
       </c>
       <c r="D13">
-        <v>324.5042396299223</v>
+        <v>332.1965302220057</v>
       </c>
       <c r="E13">
-        <v>325.4471740722656</v>
+        <v>335.5910339355469</v>
       </c>
       <c r="F13">
-        <v>37828500</v>
+        <v>20265300</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1143,22 +1143,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="B14">
-        <v>327.9682508373861</v>
+        <v>337.2585179647521</v>
       </c>
       <c r="C14">
-        <v>334.2113980878065</v>
+        <v>344.8316780757887</v>
       </c>
       <c r="D14">
-        <v>325.9533757848623</v>
+        <v>337.1195464481157</v>
       </c>
       <c r="E14">
-        <v>327.3528747558594</v>
+        <v>343.4917297363281</v>
       </c>
       <c r="F14">
-        <v>29856500</v>
+        <v>28158800</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1169,22 +1169,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="B15">
-        <v>330.9260586024756</v>
+        <v>344.6530047712634</v>
       </c>
       <c r="C15">
-        <v>336.9210683494595</v>
+        <v>346.2311554187722</v>
       </c>
       <c r="D15">
-        <v>329.3578128320324</v>
+        <v>342.2014053977885</v>
       </c>
       <c r="E15">
-        <v>334.7969970703125</v>
+        <v>345.7249755859375</v>
       </c>
       <c r="F15">
-        <v>22828100</v>
+        <v>24348100</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1195,22 +1195,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="B16">
-        <v>336.3255108784327</v>
+        <v>347.0252038084218</v>
       </c>
       <c r="C16">
-        <v>336.4743872926427</v>
+        <v>351.7497507179463</v>
       </c>
       <c r="D16">
-        <v>332.1965000131129</v>
+        <v>344.7423210127986</v>
       </c>
       <c r="E16">
-        <v>335.5910034179688</v>
+        <v>350.1715698242188</v>
       </c>
       <c r="F16">
-        <v>20265300</v>
+        <v>23624000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1221,22 +1221,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="B17">
-        <v>337.2585479285395</v>
+        <v>350.8167694917966</v>
       </c>
       <c r="C17">
-        <v>344.8317087124147</v>
+        <v>354.8762948926661</v>
       </c>
       <c r="D17">
-        <v>337.1195763995562</v>
+        <v>350.717508445105</v>
       </c>
       <c r="E17">
-        <v>343.4917602539062</v>
+        <v>353.8738098144531</v>
       </c>
       <c r="F17">
-        <v>28158800</v>
+        <v>23828300</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1247,22 +1247,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="B18">
-        <v>344.6530047712634</v>
+        <v>356.7224383920999</v>
       </c>
       <c r="C18">
-        <v>346.2311554187722</v>
+        <v>359.759638751346</v>
       </c>
       <c r="D18">
-        <v>342.2014053977885</v>
+        <v>354.965635922409</v>
       </c>
       <c r="E18">
-        <v>345.7249755859375</v>
+        <v>357.8440246582031</v>
       </c>
       <c r="F18">
-        <v>24348100</v>
+        <v>25833900</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1273,22 +1273,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="B19">
-        <v>347.0252038084218</v>
+        <v>358.9854149811907</v>
       </c>
       <c r="C19">
-        <v>351.7497507179463</v>
+        <v>361.1591015305121</v>
       </c>
       <c r="D19">
-        <v>344.7423210127986</v>
+        <v>357.8638288276794</v>
       </c>
       <c r="E19">
-        <v>350.1715698242188</v>
+        <v>360.4941101074219</v>
       </c>
       <c r="F19">
-        <v>23624000</v>
+        <v>26767800</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1299,22 +1299,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="B20">
-        <v>350.8167694917966</v>
+        <v>359.600798335479</v>
       </c>
       <c r="C20">
-        <v>354.8762948926661</v>
+        <v>362.0722680579289</v>
       </c>
       <c r="D20">
-        <v>350.717508445105</v>
+        <v>357.675249204351</v>
       </c>
       <c r="E20">
-        <v>353.8738098144531</v>
+        <v>358.0028076171875</v>
       </c>
       <c r="F20">
-        <v>23828300</v>
+        <v>24847300</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="B21">
-        <v>356.7224079701727</v>
+        <v>358.7968431084245</v>
       </c>
       <c r="C21">
-        <v>359.7596080704009</v>
+        <v>367.3427132470641</v>
       </c>
       <c r="D21">
-        <v>354.965605650305</v>
+        <v>358.3799891252039</v>
       </c>
       <c r="E21">
-        <v>357.843994140625</v>
+        <v>366.9159240722656</v>
       </c>
       <c r="F21">
-        <v>25833900</v>
+        <v>28042100</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1351,22 +1351,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="B22">
-        <v>358.9854149811907</v>
+        <v>365.4767164421842</v>
       </c>
       <c r="C22">
-        <v>361.1591015305121</v>
+        <v>365.7248539111094</v>
       </c>
       <c r="D22">
-        <v>357.8638288276794</v>
+        <v>363.1739934609058</v>
       </c>
       <c r="E22">
-        <v>360.4941101074219</v>
+        <v>363.9481811523438</v>
       </c>
       <c r="F22">
-        <v>26767800</v>
+        <v>19986500</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1377,22 +1377,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="B23">
-        <v>359.600798335479</v>
+        <v>368.2458904650465</v>
       </c>
       <c r="C23">
-        <v>362.0722680579289</v>
+        <v>369.178889648259</v>
       </c>
       <c r="D23">
-        <v>357.675249204351</v>
+        <v>364.6131547647073</v>
       </c>
       <c r="E23">
-        <v>358.0028076171875</v>
+        <v>367.5113830566406</v>
       </c>
       <c r="F23">
-        <v>24847300</v>
+        <v>27683900</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>45240</v>
+        <v>45245</v>
       </c>
       <c r="B24">
-        <v>358.7968132661364</v>
+        <v>369.2618786874986</v>
       </c>
       <c r="C24">
-        <v>367.3426826939886</v>
+        <v>371.1018289450226</v>
       </c>
       <c r="D24">
-        <v>358.379959317587</v>
+        <v>365.114531678395</v>
       </c>
       <c r="E24">
-        <v>366.9158935546875</v>
+        <v>367.66064453125</v>
       </c>
       <c r="F24">
-        <v>28042100</v>
+        <v>26860100</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1429,22 +1429,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>45243</v>
+        <v>45246</v>
       </c>
       <c r="B25">
-        <v>365.4767164421842</v>
+        <v>368.943632873062</v>
       </c>
       <c r="C25">
-        <v>365.7248539111094</v>
+        <v>374.3043500162593</v>
       </c>
       <c r="D25">
-        <v>363.1739934609058</v>
+        <v>368.1678737887964</v>
       </c>
       <c r="E25">
-        <v>363.9481811523438</v>
+        <v>374.1253356933594</v>
       </c>
       <c r="F25">
-        <v>19986500</v>
+        <v>27182300</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1455,22 +1455,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>45244</v>
+        <v>45247</v>
       </c>
       <c r="B26">
-        <v>368.245921043617</v>
+        <v>371.5792022635868</v>
       </c>
       <c r="C26">
-        <v>369.1789203043043</v>
+        <v>372.3350809432151</v>
       </c>
       <c r="D26">
-        <v>364.613185041621</v>
+        <v>365.005145947623</v>
       </c>
       <c r="E26">
-        <v>367.5114135742188</v>
+        <v>367.8396606445312</v>
       </c>
       <c r="F26">
-        <v>27683900</v>
+        <v>40157000</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1481,25 +1481,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>45245</v>
+        <v>45250</v>
       </c>
       <c r="B27">
-        <v>369.2618480370104</v>
+        <v>369.2022053086174</v>
       </c>
       <c r="C27">
-        <v>371.1017981418099</v>
+        <v>376.810617053383</v>
       </c>
       <c r="D27">
-        <v>365.1145013721563</v>
+        <v>368.9833999220889</v>
       </c>
       <c r="E27">
-        <v>367.6606140136719</v>
+        <v>375.3883972167969</v>
       </c>
       <c r="F27">
-        <v>26860100</v>
+        <v>52465100</v>
       </c>
       <c r="G27">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1507,22 +1507,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>45246</v>
+        <v>45251</v>
       </c>
       <c r="B28">
-        <v>368.9436027781578</v>
+        <v>373.6280182633099</v>
       </c>
       <c r="C28">
-        <v>374.3043194840789</v>
+        <v>374.1750165378886</v>
       </c>
       <c r="D28">
-        <v>368.1678437571713</v>
+        <v>369.102732071527</v>
       </c>
       <c r="E28">
-        <v>374.1253051757812</v>
+        <v>371.0421447753906</v>
       </c>
       <c r="F28">
-        <v>27182300</v>
+        <v>28423100</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1533,22 +1533,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B29">
-        <v>371.5792022635868</v>
+        <v>375.9453516887322</v>
       </c>
       <c r="C29">
-        <v>372.3350809432151</v>
+        <v>377.7256305034054</v>
       </c>
       <c r="D29">
-        <v>365.005145947623</v>
+        <v>372.9318227027555</v>
       </c>
       <c r="E29">
-        <v>367.8396606445312</v>
+        <v>375.7961730957031</v>
       </c>
       <c r="F29">
-        <v>40157000</v>
+        <v>23345300</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1559,22 +1559,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>45250</v>
+        <v>45254</v>
       </c>
       <c r="B30">
-        <v>369.2022053086174</v>
+        <v>375.2789554627134</v>
       </c>
       <c r="C30">
-        <v>376.810617053383</v>
+        <v>375.9154912199913</v>
       </c>
       <c r="D30">
-        <v>368.9833999220889</v>
+        <v>373.1008874444975</v>
       </c>
       <c r="E30">
-        <v>375.3883972167969</v>
+        <v>375.37841796875</v>
       </c>
       <c r="F30">
-        <v>52465100</v>
+        <v>10176600</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1585,22 +1585,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>45251</v>
+        <v>45257</v>
       </c>
       <c r="B31">
-        <v>373.6280182633099</v>
+        <v>374.731962508856</v>
       </c>
       <c r="C31">
-        <v>374.1750165378886</v>
+        <v>378.5709967639776</v>
       </c>
       <c r="D31">
-        <v>369.102732071527</v>
+        <v>374.1551285283952</v>
       </c>
       <c r="E31">
-        <v>371.0421447753906</v>
+        <v>376.552001953125</v>
       </c>
       <c r="F31">
-        <v>28423100</v>
+        <v>22179200</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="B32">
-        <v>375.9453516887322</v>
+        <v>376.2934809267111</v>
       </c>
       <c r="C32">
-        <v>377.7256305034054</v>
+        <v>380.9181997356685</v>
       </c>
       <c r="D32">
-        <v>372.9318227027555</v>
+        <v>376.1045112454426</v>
       </c>
       <c r="E32">
-        <v>375.7961730957031</v>
+        <v>380.6198425292969</v>
       </c>
       <c r="F32">
-        <v>23345300</v>
+        <v>20453100</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1637,22 +1637,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B33">
-        <v>375.2789554627134</v>
+        <v>381.674025054865</v>
       </c>
       <c r="C33">
-        <v>375.9154912199913</v>
+        <v>382.2110679511879</v>
       </c>
       <c r="D33">
-        <v>373.1008874444975</v>
+        <v>375.3883710720959</v>
       </c>
       <c r="E33">
-        <v>375.37841796875</v>
+        <v>376.7907104492188</v>
       </c>
       <c r="F33">
-        <v>10176600</v>
+        <v>28963400</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1663,22 +1663,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>45257</v>
+        <v>45260</v>
       </c>
       <c r="B34">
-        <v>374.731962508856</v>
+        <v>376.43267242664</v>
       </c>
       <c r="C34">
-        <v>378.5709967639776</v>
+        <v>378.0239815470539</v>
       </c>
       <c r="D34">
-        <v>374.1551285283952</v>
+        <v>373.4290988462353</v>
       </c>
       <c r="E34">
-        <v>376.552001953125</v>
+        <v>376.8504028320312</v>
       </c>
       <c r="F34">
-        <v>22179200</v>
+        <v>30554400</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1689,22 +1689,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="B35">
-        <v>376.2934507560147</v>
+        <v>374.712073985326</v>
       </c>
       <c r="C35">
-        <v>380.9181691941685</v>
+        <v>376.1044580041203</v>
       </c>
       <c r="D35">
-        <v>376.1044810898975</v>
+        <v>369.2916861405215</v>
       </c>
       <c r="E35">
-        <v>380.6198120117188</v>
+        <v>372.4743041992188</v>
       </c>
       <c r="F35">
-        <v>20453100</v>
+        <v>33020400</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1715,22 +1715,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>45259</v>
+        <v>45264</v>
       </c>
       <c r="B36">
-        <v>381.6740559679596</v>
+        <v>367.0937233301231</v>
       </c>
       <c r="C36">
-        <v>382.2110989077795</v>
+        <v>367.5114233780095</v>
       </c>
       <c r="D36">
-        <v>375.3884014760937</v>
+        <v>360.9274119561455</v>
       </c>
       <c r="E36">
-        <v>376.7907409667969</v>
+        <v>367.1335144042969</v>
       </c>
       <c r="F36">
-        <v>28963400</v>
+        <v>32063300</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1741,22 +1741,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>45260</v>
+        <v>45265</v>
       </c>
       <c r="B37">
-        <v>376.43267242664</v>
+        <v>364.4581343822117</v>
       </c>
       <c r="C37">
-        <v>378.0239815470539</v>
+        <v>371.0520708200963</v>
       </c>
       <c r="D37">
-        <v>373.4290988462353</v>
+        <v>363.6326289381052</v>
       </c>
       <c r="E37">
-        <v>376.8504028320312</v>
+        <v>370.4951171875</v>
       </c>
       <c r="F37">
-        <v>30554400</v>
+        <v>23065000</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1767,22 +1767,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="B38">
-        <v>374.712073985326</v>
+        <v>371.5096051517362</v>
       </c>
       <c r="C38">
-        <v>376.1044580041203</v>
+        <v>372.1461106031472</v>
       </c>
       <c r="D38">
-        <v>369.2916861405215</v>
+        <v>366.0295454376952</v>
       </c>
       <c r="E38">
-        <v>372.4743041992188</v>
+        <v>366.7953491210938</v>
       </c>
       <c r="F38">
-        <v>33020400</v>
+        <v>21182100</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1793,22 +1793,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="B39">
-        <v>367.0937233301231</v>
+        <v>366.2284385609982</v>
       </c>
       <c r="C39">
-        <v>367.5114233780095</v>
+        <v>369.4309369561287</v>
       </c>
       <c r="D39">
-        <v>360.9274119561455</v>
+        <v>364.3288170256799</v>
       </c>
       <c r="E39">
-        <v>367.1335144042969</v>
+        <v>368.9336547851562</v>
       </c>
       <c r="F39">
-        <v>32063300</v>
+        <v>23118900</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1819,22 +1819,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="B40">
-        <v>364.4581343822117</v>
+        <v>367.1932038904382</v>
       </c>
       <c r="C40">
-        <v>371.0520708200963</v>
+        <v>372.4245922128321</v>
       </c>
       <c r="D40">
-        <v>363.6326289381052</v>
+        <v>366.228475168252</v>
       </c>
       <c r="E40">
-        <v>370.4951171875</v>
+        <v>372.1958618164062</v>
       </c>
       <c r="F40">
-        <v>23065000</v>
+        <v>20144800</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>45266</v>
+        <v>45271</v>
       </c>
       <c r="B41">
-        <v>371.5096360615431</v>
+        <v>366.477089826347</v>
       </c>
       <c r="C41">
-        <v>372.1461415659116</v>
+        <v>369.580125803139</v>
       </c>
       <c r="D41">
-        <v>366.0295758915581</v>
+        <v>364.1100217704953</v>
       </c>
       <c r="E41">
-        <v>366.7953796386719</v>
+        <v>369.28173828125</v>
       </c>
       <c r="F41">
-        <v>21182100</v>
+        <v>27708800</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1871,22 +1871,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B42">
-        <v>366.2284688548053</v>
+        <v>368.8342205561381</v>
       </c>
       <c r="C42">
-        <v>369.4309675148412</v>
+        <v>372.3848228134841</v>
       </c>
       <c r="D42">
-        <v>364.3288471623536</v>
+        <v>368.4463258642292</v>
       </c>
       <c r="E42">
-        <v>368.9336853027344</v>
+        <v>372.3450317382812</v>
       </c>
       <c r="F42">
-        <v>23118900</v>
+        <v>24838300</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1897,22 +1897,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>45268</v>
+        <v>45273</v>
       </c>
       <c r="B43">
-        <v>367.1931737830446</v>
+        <v>373.9760776046103</v>
       </c>
       <c r="C43">
-        <v>372.4245616764996</v>
+        <v>375.5872973541182</v>
       </c>
       <c r="D43">
-        <v>366.2284451399598</v>
+        <v>368.7546147441536</v>
       </c>
       <c r="E43">
-        <v>372.1958312988281</v>
+        <v>372.3350524902344</v>
       </c>
       <c r="F43">
-        <v>20144800</v>
+        <v>30955500</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B44">
-        <v>366.477089826347</v>
+        <v>371.2808075799423</v>
       </c>
       <c r="C44">
-        <v>369.580125803139</v>
+        <v>371.728373669091</v>
       </c>
       <c r="D44">
-        <v>364.1100217704953</v>
+        <v>362.1507143155446</v>
       </c>
       <c r="E44">
-        <v>369.28173828125</v>
+        <v>363.94091796875</v>
       </c>
       <c r="F44">
-        <v>27708800</v>
+        <v>43277500</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1949,22 +1949,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>45272</v>
+        <v>45275</v>
       </c>
       <c r="B45">
-        <v>368.8341903263077</v>
+        <v>364.8559595044662</v>
       </c>
       <c r="C45">
-        <v>372.3847922926447</v>
+        <v>370.3757798336235</v>
       </c>
       <c r="D45">
-        <v>368.446295666191</v>
+        <v>364.2890505069406</v>
       </c>
       <c r="E45">
-        <v>372.3450012207031</v>
+        <v>368.7148742675781</v>
       </c>
       <c r="F45">
-        <v>24838300</v>
+        <v>78478200</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>45273</v>
+        <v>45278</v>
       </c>
       <c r="B46">
-        <v>373.9761082566912</v>
+        <v>367.4418020193896</v>
       </c>
       <c r="C46">
-        <v>375.587328138259</v>
+        <v>370.9724932325335</v>
       </c>
       <c r="D46">
-        <v>368.7546449682694</v>
+        <v>366.6759680640395</v>
       </c>
       <c r="E46">
-        <v>372.3350830078125</v>
+        <v>370.6243896484375</v>
       </c>
       <c r="F46">
-        <v>30955500</v>
+        <v>21802900</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2001,22 +2001,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B47">
-        <v>371.280838712993</v>
+        <v>369.4707416170306</v>
       </c>
       <c r="C47">
-        <v>371.7284048396714</v>
+        <v>371.2311401367188</v>
       </c>
       <c r="D47">
-        <v>362.1507446830086</v>
+        <v>367.8297163279964</v>
       </c>
       <c r="E47">
-        <v>363.9409484863281</v>
+        <v>371.2311401367188</v>
       </c>
       <c r="F47">
-        <v>43277500</v>
+        <v>20603700</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2027,22 +2027,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="B48">
-        <v>364.8559595044662</v>
+        <v>372.9616349853217</v>
       </c>
       <c r="C48">
-        <v>370.3757798336235</v>
+        <v>373.9860350620136</v>
       </c>
       <c r="D48">
-        <v>364.2890505069406</v>
+        <v>368.5159310822289</v>
       </c>
       <c r="E48">
-        <v>368.7148742675781</v>
+        <v>368.6054382324219</v>
       </c>
       <c r="F48">
-        <v>78478200</v>
+        <v>26316700</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2053,22 +2053,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="B49">
-        <v>367.4418322749103</v>
+        <v>370.534928949798</v>
       </c>
       <c r="C49">
-        <v>370.9725237787748</v>
+        <v>372.3748792520713</v>
       </c>
       <c r="D49">
-        <v>366.6759982565007</v>
+        <v>368.028637463181</v>
       </c>
       <c r="E49">
-        <v>370.6244201660156</v>
+        <v>371.5096130371094</v>
       </c>
       <c r="F49">
-        <v>21802900</v>
+        <v>17708000</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2079,22 +2079,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B50">
-        <v>369.4707112441685</v>
+        <v>371.6488129167997</v>
       </c>
       <c r="C50">
-        <v>371.2311096191406</v>
+        <v>373.1406594975688</v>
       </c>
       <c r="D50">
-        <v>367.8296860900372</v>
+        <v>370.6840842471678</v>
       </c>
       <c r="E50">
-        <v>371.2311096191406</v>
+        <v>372.5439147949219</v>
       </c>
       <c r="F50">
-        <v>20603700</v>
+        <v>17091100</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2105,22 +2105,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>45280</v>
+        <v>45286</v>
       </c>
       <c r="B51">
-        <v>372.9616349853217</v>
+        <v>372.9616528950932</v>
       </c>
       <c r="C51">
-        <v>373.9860350620136</v>
+        <v>374.8911102742062</v>
       </c>
       <c r="D51">
-        <v>368.5159310822289</v>
+        <v>371.4698062835128</v>
       </c>
       <c r="E51">
-        <v>368.6054382324219</v>
+        <v>372.6235046386719</v>
       </c>
       <c r="F51">
-        <v>26316700</v>
+        <v>12673100</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2131,22 +2131,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B52">
-        <v>370.534928949798</v>
+        <v>371.6587733179547</v>
       </c>
       <c r="C52">
-        <v>372.3748792520713</v>
+        <v>373.0213216906138</v>
       </c>
       <c r="D52">
-        <v>368.028637463181</v>
+        <v>370.7835517890855</v>
       </c>
       <c r="E52">
-        <v>371.5096130371094</v>
+        <v>372.0367126464844</v>
       </c>
       <c r="F52">
-        <v>17708000</v>
+        <v>14905400</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>45282</v>
+        <v>45288</v>
       </c>
       <c r="B53">
-        <v>371.6488129167997</v>
+        <v>373.3296194550034</v>
       </c>
       <c r="C53">
-        <v>373.1406594975688</v>
+        <v>374.4136909666463</v>
       </c>
       <c r="D53">
-        <v>370.6840842471678</v>
+        <v>372.1262050762726</v>
       </c>
       <c r="E53">
-        <v>372.5439147949219</v>
+        <v>373.2401123046875</v>
       </c>
       <c r="F53">
-        <v>17091100</v>
+        <v>14327000</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2183,22 +2183,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="B54">
-        <v>372.9616528950932</v>
+        <v>373.956180608808</v>
       </c>
       <c r="C54">
-        <v>374.8911102742062</v>
+        <v>375.1098788507618</v>
       </c>
       <c r="D54">
-        <v>371.4698062835128</v>
+        <v>371.4498894738907</v>
       </c>
       <c r="E54">
-        <v>372.6235046386719</v>
+        <v>373.9959716796875</v>
       </c>
       <c r="F54">
-        <v>12673100</v>
+        <v>18723000</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2209,22 +2209,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="B55">
-        <v>371.6587733179547</v>
+        <v>371.8278333128194</v>
       </c>
       <c r="C55">
-        <v>373.0213216906138</v>
+        <v>373.8567531943751</v>
       </c>
       <c r="D55">
-        <v>370.7835517890855</v>
+        <v>364.7763753344142</v>
       </c>
       <c r="E55">
-        <v>372.0367126464844</v>
+        <v>368.8540954589844</v>
       </c>
       <c r="F55">
-        <v>14905400</v>
+        <v>25258600</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2235,22 +2235,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>45288</v>
+        <v>45294</v>
       </c>
       <c r="B56">
-        <v>373.3296194550034</v>
+        <v>367.0042175413639</v>
       </c>
       <c r="C56">
-        <v>374.4136909666463</v>
+        <v>371.2311162250648</v>
       </c>
       <c r="D56">
-        <v>372.1262050762726</v>
+        <v>366.5069353432814</v>
       </c>
       <c r="E56">
-        <v>373.2401123046875</v>
+        <v>368.5855712890625</v>
       </c>
       <c r="F56">
-        <v>14327000</v>
+        <v>23083500</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2261,22 +2261,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B57">
-        <v>373.956180608808</v>
+        <v>368.6551739921296</v>
       </c>
       <c r="C57">
-        <v>375.1098788507618</v>
+        <v>371.071958032483</v>
       </c>
       <c r="D57">
-        <v>371.4498894738907</v>
+        <v>365.1741988330101</v>
       </c>
       <c r="E57">
-        <v>373.9959716796875</v>
+        <v>365.9400024414062</v>
       </c>
       <c r="F57">
-        <v>18723000</v>
+        <v>20901500</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B58">
-        <v>371.8278333128194</v>
+        <v>366.9644073117081</v>
       </c>
       <c r="C58">
-        <v>373.8567531943751</v>
+        <v>370.0376074932349</v>
       </c>
       <c r="D58">
-        <v>364.7763753344142</v>
+        <v>364.5078321673447</v>
       </c>
       <c r="E58">
-        <v>368.8540954589844</v>
+        <v>365.7510375976562</v>
       </c>
       <c r="F58">
-        <v>25258600</v>
+        <v>20987000</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2313,22 +2313,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B59">
-        <v>367.0042175413639</v>
+        <v>367.292633952991</v>
       </c>
       <c r="C59">
-        <v>371.2311162250648</v>
+        <v>373.1605884048141</v>
       </c>
       <c r="D59">
-        <v>366.5069353432814</v>
+        <v>367.0042321198686</v>
       </c>
       <c r="E59">
-        <v>368.5855712890625</v>
+        <v>372.6533508300781</v>
       </c>
       <c r="F59">
-        <v>23083500</v>
+        <v>23134000</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2339,22 +2339,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B60">
-        <v>368.6551739921296</v>
+        <v>369.9879231585575</v>
       </c>
       <c r="C60">
-        <v>371.071958032483</v>
+        <v>373.9462701631775</v>
       </c>
       <c r="D60">
-        <v>365.1741988330101</v>
+        <v>369.1723730418989</v>
       </c>
       <c r="E60">
-        <v>365.9400024414062</v>
+        <v>373.7473754882812</v>
       </c>
       <c r="F60">
-        <v>20901500</v>
+        <v>20830000</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="B61">
-        <v>366.9644073117081</v>
+        <v>374.3241862070379</v>
       </c>
       <c r="C61">
-        <v>370.0376074932349</v>
+        <v>382.0818064859509</v>
       </c>
       <c r="D61">
-        <v>364.5078321673447</v>
+        <v>374.2744701293323</v>
       </c>
       <c r="E61">
-        <v>365.7510375976562</v>
+        <v>380.6893920898438</v>
       </c>
       <c r="F61">
-        <v>20987000</v>
+        <v>25514200</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2391,22 +2391,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B62">
-        <v>367.292633952991</v>
+        <v>383.9018550002872</v>
       </c>
       <c r="C62">
-        <v>373.1605884048141</v>
+        <v>388.5564090666608</v>
       </c>
       <c r="D62">
-        <v>367.0042321198686</v>
+        <v>378.3124079780571</v>
       </c>
       <c r="E62">
-        <v>372.6533508300781</v>
+        <v>382.539306640625</v>
       </c>
       <c r="F62">
-        <v>23134000</v>
+        <v>27850800</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2417,22 +2417,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="B63">
-        <v>369.9878929479498</v>
+        <v>383.3946161527287</v>
       </c>
       <c r="C63">
-        <v>373.9462396293591</v>
+        <v>386.5672789780478</v>
       </c>
       <c r="D63">
-        <v>369.1723428978833</v>
+        <v>382.5591857091536</v>
       </c>
       <c r="E63">
-        <v>373.7473449707031</v>
+        <v>386.3584289550781</v>
       </c>
       <c r="F63">
-        <v>20830000</v>
+        <v>21645700</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2443,22 +2443,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>45301</v>
+        <v>45307</v>
       </c>
       <c r="B64">
-        <v>374.3241862070379</v>
+        <v>391.520239126531</v>
       </c>
       <c r="C64">
-        <v>382.0818064859509</v>
+        <v>391.8882231112115</v>
       </c>
       <c r="D64">
-        <v>374.2744701293323</v>
+        <v>385.5130614406214</v>
       </c>
       <c r="E64">
-        <v>380.6893920898438</v>
+        <v>388.1486511230469</v>
       </c>
       <c r="F64">
-        <v>25514200</v>
+        <v>27202300</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2469,22 +2469,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="B65">
-        <v>383.9018856265645</v>
+        <v>385.8711055875195</v>
       </c>
       <c r="C65">
-        <v>388.5564400642612</v>
+        <v>387.9895022572259</v>
       </c>
       <c r="D65">
-        <v>378.3124381584288</v>
+        <v>382.718323094995</v>
       </c>
       <c r="E65">
-        <v>382.5393371582031</v>
+        <v>387.3529968261719</v>
       </c>
       <c r="F65">
-        <v>27850800</v>
+        <v>22234100</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2495,22 +2495,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>45303</v>
+        <v>45309</v>
       </c>
       <c r="B66">
-        <v>383.3946161527287</v>
+        <v>389.590757608681</v>
       </c>
       <c r="C66">
-        <v>386.5672789780478</v>
+        <v>391.8484078099571</v>
       </c>
       <c r="D66">
-        <v>382.5591857091536</v>
+        <v>387.9994485407124</v>
       </c>
       <c r="E66">
-        <v>386.3584289550781</v>
+        <v>391.7290649414062</v>
       </c>
       <c r="F66">
-        <v>21645700</v>
+        <v>23392100</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2521,22 +2521,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B67">
-        <v>391.520239126531</v>
+        <v>393.6088350587205</v>
       </c>
       <c r="C67">
-        <v>391.8882231112115</v>
+        <v>396.5030212402344</v>
       </c>
       <c r="D67">
-        <v>385.5130614406214</v>
+        <v>391.3611096970909</v>
       </c>
       <c r="E67">
-        <v>388.1486511230469</v>
+        <v>396.5030212402344</v>
       </c>
       <c r="F67">
-        <v>27202300</v>
+        <v>29272000</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2547,22 +2547,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>45308</v>
+        <v>45313</v>
       </c>
       <c r="B68">
-        <v>385.8711055875195</v>
+        <v>397.8456367008518</v>
       </c>
       <c r="C68">
-        <v>387.9895022572259</v>
+        <v>398.4423814057005</v>
       </c>
       <c r="D68">
-        <v>382.718323094995</v>
+        <v>391.4505949520992</v>
       </c>
       <c r="E68">
-        <v>387.3529968261719</v>
+        <v>394.354736328125</v>
       </c>
       <c r="F68">
-        <v>22234100</v>
+        <v>27016900</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2573,22 +2573,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B69">
-        <v>389.590757608681</v>
+        <v>393.598848284639</v>
       </c>
       <c r="C69">
-        <v>391.8484078099571</v>
+        <v>397.2091217935274</v>
       </c>
       <c r="D69">
-        <v>387.9994485407124</v>
+        <v>391.7887338520878</v>
       </c>
       <c r="E69">
-        <v>391.7290649414062</v>
+        <v>396.7317199707031</v>
       </c>
       <c r="F69">
-        <v>23392100</v>
+        <v>20525900</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2599,22 +2599,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>45310</v>
+        <v>45315</v>
       </c>
       <c r="B70">
-        <v>393.6088047638987</v>
+        <v>399.3573814516948</v>
       </c>
       <c r="C70">
-        <v>396.5029907226562</v>
+        <v>403.4251460402496</v>
       </c>
       <c r="D70">
-        <v>391.3610795752693</v>
+        <v>398.2733099419358</v>
       </c>
       <c r="E70">
-        <v>396.5029907226562</v>
+        <v>400.371826171875</v>
       </c>
       <c r="F70">
-        <v>29272000</v>
+        <v>24867000</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2625,22 +2625,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B71">
-        <v>397.8456674885771</v>
+        <v>402.1222827302953</v>
       </c>
       <c r="C71">
-        <v>398.4424122396056</v>
+        <v>404.7976633760543</v>
       </c>
       <c r="D71">
-        <v>391.450625244937</v>
+        <v>400.3420039680487</v>
       </c>
       <c r="E71">
-        <v>394.3547668457031</v>
+        <v>402.6692810058594</v>
       </c>
       <c r="F71">
-        <v>27016900</v>
+        <v>21021200</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2651,22 +2651,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B72">
-        <v>393.5988785612289</v>
+        <v>402.1720162977375</v>
       </c>
       <c r="C72">
-        <v>397.2091523478285</v>
+        <v>403.9622504943072</v>
       </c>
       <c r="D72">
-        <v>391.7887639894393</v>
+        <v>400.2425588629524</v>
       </c>
       <c r="E72">
-        <v>396.7317504882812</v>
+        <v>401.7344055175781</v>
       </c>
       <c r="F72">
-        <v>20525900</v>
+        <v>17803300</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2677,22 +2677,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B73">
-        <v>399.3574118919489</v>
+        <v>403.8528106405262</v>
       </c>
       <c r="C73">
-        <v>403.4251767905612</v>
+        <v>407.7515163738106</v>
       </c>
       <c r="D73">
-        <v>398.2733402995586</v>
+        <v>402.132203332571</v>
       </c>
       <c r="E73">
-        <v>400.3718566894531</v>
+        <v>407.492919921875</v>
       </c>
       <c r="F73">
-        <v>24867000</v>
+        <v>24510200</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2703,22 +2703,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B74">
-        <v>402.1222827302953</v>
+        <v>410.0191444276463</v>
       </c>
       <c r="C74">
-        <v>404.7976633760543</v>
+        <v>410.8048284794957</v>
       </c>
       <c r="D74">
-        <v>400.3420039680487</v>
+        <v>404.240727477975</v>
       </c>
       <c r="E74">
-        <v>402.6692810058594</v>
+        <v>406.3690795898438</v>
       </c>
       <c r="F74">
-        <v>21021200</v>
+        <v>33477600</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2729,22 +2729,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B75">
-        <v>402.1719857469165</v>
+        <v>404.7479340534368</v>
       </c>
       <c r="C75">
-        <v>403.9622198074917</v>
+        <v>413.0625085146517</v>
       </c>
       <c r="D75">
-        <v>400.2425284587017</v>
+        <v>395.0509308101669</v>
       </c>
       <c r="E75">
-        <v>401.734375</v>
+        <v>395.4189147949219</v>
       </c>
       <c r="F75">
-        <v>17803300</v>
+        <v>47871100</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B76">
-        <v>403.8527803955598</v>
+        <v>399.645822762124</v>
       </c>
       <c r="C76">
-        <v>407.7514858368659</v>
+        <v>405.7822988220977</v>
       </c>
       <c r="D76">
-        <v>402.1321732164627</v>
+        <v>399.615987042455</v>
       </c>
       <c r="E76">
-        <v>407.4928894042969</v>
+        <v>401.5852355957031</v>
       </c>
       <c r="F76">
-        <v>24510200</v>
+        <v>30657700</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2781,22 +2781,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B77">
-        <v>410.0191444276463</v>
+        <v>401.6150459193161</v>
       </c>
       <c r="C77">
-        <v>410.8048284794957</v>
+        <v>410.4069915289673</v>
       </c>
       <c r="D77">
-        <v>404.240727477975</v>
+        <v>401.3664048205646</v>
       </c>
       <c r="E77">
-        <v>406.3690795898438</v>
+        <v>408.9847717285156</v>
       </c>
       <c r="F77">
-        <v>33477600</v>
+        <v>28245000</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2807,22 +2807,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="B78">
-        <v>404.7479340534368</v>
+        <v>407.6719673272692</v>
       </c>
       <c r="C78">
-        <v>413.0625085146517</v>
+        <v>408.9251282632355</v>
       </c>
       <c r="D78">
-        <v>395.0509308101669</v>
+        <v>401.7940877085348</v>
       </c>
       <c r="E78">
-        <v>395.4189147949219</v>
+        <v>403.445068359375</v>
       </c>
       <c r="F78">
-        <v>47871100</v>
+        <v>25352300</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2833,22 +2833,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B79">
-        <v>399.6457923919272</v>
+        <v>403.6737833372877</v>
       </c>
       <c r="C79">
-        <v>405.782267985573</v>
+        <v>405.7524191871148</v>
       </c>
       <c r="D79">
-        <v>399.6159566745255</v>
+        <v>400.7199260029661</v>
       </c>
       <c r="E79">
-        <v>401.585205078125</v>
+        <v>403.285888671875</v>
       </c>
       <c r="F79">
-        <v>30657700</v>
+        <v>18382600</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2859,22 +2859,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="B80">
-        <v>401.6150459193161</v>
+        <v>405.2253213300188</v>
       </c>
       <c r="C80">
-        <v>410.4069915289673</v>
+        <v>412.0480185412626</v>
       </c>
       <c r="D80">
-        <v>401.3664048205646</v>
+        <v>405.1855302555667</v>
       </c>
       <c r="E80">
-        <v>408.9847717285156</v>
+        <v>411.7993774414062</v>
       </c>
       <c r="F80">
-        <v>28245000</v>
+        <v>22340500</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2885,22 +2885,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B81">
-        <v>407.6719364899581</v>
+        <v>411.7993678721975</v>
       </c>
       <c r="C81">
-        <v>408.9250973311322</v>
+        <v>413.3011697929746</v>
       </c>
       <c r="D81">
-        <v>401.7940573158409</v>
+        <v>410.2876409468105</v>
       </c>
       <c r="E81">
-        <v>403.4450378417969</v>
+        <v>411.8590393066406</v>
       </c>
       <c r="F81">
-        <v>25352300</v>
+        <v>21225300</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2911,22 +2911,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="B82">
-        <v>403.6737833372877</v>
+        <v>412.9928590098735</v>
       </c>
       <c r="C82">
-        <v>405.7524191871148</v>
+        <v>418.5325898937627</v>
       </c>
       <c r="D82">
-        <v>400.7199260029661</v>
+        <v>412.8337250667871</v>
       </c>
       <c r="E82">
-        <v>403.285888671875</v>
+        <v>418.2640380859375</v>
       </c>
       <c r="F82">
-        <v>18382600</v>
+        <v>22032800</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2937,22 +2937,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B83">
-        <v>405.2253513604076</v>
+        <v>418.274017514189</v>
       </c>
       <c r="C83">
-        <v>412.048049077267</v>
+        <v>418.4530318285774</v>
       </c>
       <c r="D83">
-        <v>405.1855602830067</v>
+        <v>412.4956005589671</v>
       </c>
       <c r="E83">
-        <v>411.7994079589844</v>
+        <v>413.0028381347656</v>
       </c>
       <c r="F83">
-        <v>22340500</v>
+        <v>21202900</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2963,22 +2963,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B84">
-        <v>411.7993678721975</v>
+        <v>402.7389159311724</v>
       </c>
       <c r="C84">
-        <v>413.3011697929746</v>
+        <v>407.8410362274365</v>
       </c>
       <c r="D84">
-        <v>410.2876409468105</v>
+        <v>401.1973532313077</v>
       </c>
       <c r="E84">
-        <v>411.8590393066406</v>
+        <v>404.1114196777344</v>
       </c>
       <c r="F84">
-        <v>21225300</v>
+        <v>27824900</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2989,25 +2989,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B85">
-        <v>412.9928590098735</v>
+        <v>406.6023969609074</v>
       </c>
       <c r="C85">
-        <v>418.5325898937627</v>
+        <v>408.3660202672918</v>
       </c>
       <c r="D85">
-        <v>412.8337250667871</v>
+        <v>403.1149845958215</v>
       </c>
       <c r="E85">
-        <v>418.2640380859375</v>
+        <v>408.0172729492188</v>
       </c>
       <c r="F85">
-        <v>22032800</v>
+        <v>20401200</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3015,22 +3015,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B86">
-        <v>418.2739866071132</v>
+        <v>406.6721740492015</v>
       </c>
       <c r="C86">
-        <v>418.453000908274</v>
+        <v>407.6586038685065</v>
       </c>
       <c r="D86">
-        <v>412.4955700788698</v>
+        <v>402.8360141628252</v>
       </c>
       <c r="E86">
-        <v>413.0028076171875</v>
+        <v>405.0978393554688</v>
       </c>
       <c r="F86">
-        <v>21202900</v>
+        <v>21825500</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3041,22 +3041,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>402.7389159311724</v>
+        <v>406.4928100559887</v>
       </c>
       <c r="C87">
-        <v>407.8410362274365</v>
+        <v>406.8216402771548</v>
       </c>
       <c r="D87">
-        <v>401.1973532313077</v>
+        <v>401.9890766652795</v>
       </c>
       <c r="E87">
-        <v>404.1114196777344</v>
+        <v>402.6068420410156</v>
       </c>
       <c r="F87">
-        <v>27824900</v>
+        <v>22281100</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3067,25 +3067,25 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>45336</v>
+        <v>45342</v>
       </c>
       <c r="B88">
-        <v>406.6024273726602</v>
+        <v>401.7897635056893</v>
       </c>
       <c r="C88">
-        <v>408.3660508109545</v>
+        <v>403.0352679609647</v>
       </c>
       <c r="D88">
-        <v>403.1150147467339</v>
+        <v>396.5785923258243</v>
       </c>
       <c r="E88">
-        <v>408.0173034667969</v>
+        <v>401.3414001464844</v>
       </c>
       <c r="F88">
-        <v>20401200</v>
+        <v>24307900</v>
       </c>
       <c r="G88">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3093,22 +3093,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>45337</v>
+        <v>45343</v>
       </c>
       <c r="B89">
-        <v>406.6721740492015</v>
+        <v>398.7308310393001</v>
       </c>
       <c r="C89">
-        <v>407.6586038685065</v>
+        <v>400.8432017480266</v>
       </c>
       <c r="D89">
-        <v>402.8360141628252</v>
+        <v>395.7914283369083</v>
       </c>
       <c r="E89">
-        <v>405.0978393554688</v>
+        <v>400.7335815429688</v>
       </c>
       <c r="F89">
-        <v>21825500</v>
+        <v>18631100</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>45338</v>
+        <v>45344</v>
       </c>
       <c r="B90">
-        <v>406.4928100559887</v>
+        <v>408.7147844426672</v>
       </c>
       <c r="C90">
-        <v>406.8216402771548</v>
+        <v>411.3452740659007</v>
       </c>
       <c r="D90">
-        <v>401.9890766652795</v>
+        <v>407.1006155180746</v>
       </c>
       <c r="E90">
-        <v>402.6068420410156</v>
+        <v>410.1695251464844</v>
       </c>
       <c r="F90">
-        <v>22281100</v>
+        <v>27009900</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3145,22 +3145,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="B91">
-        <v>401.7897635056893</v>
+        <v>414.175075221901</v>
       </c>
       <c r="C91">
-        <v>403.0352679609647</v>
+        <v>414.3643639203874</v>
       </c>
       <c r="D91">
-        <v>396.5785923258243</v>
+        <v>407.4991593025601</v>
       </c>
       <c r="E91">
-        <v>401.3414001464844</v>
+        <v>408.8642272949219</v>
       </c>
       <c r="F91">
-        <v>24307900</v>
+        <v>16295900</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3171,22 +3171,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>45343</v>
+        <v>45348</v>
       </c>
       <c r="B92">
-        <v>398.7308310393001</v>
+        <v>409.980195180942</v>
       </c>
       <c r="C92">
-        <v>400.8432017480266</v>
+        <v>410.6776898273906</v>
       </c>
       <c r="D92">
-        <v>395.7914283369083</v>
+        <v>405.894934554221</v>
       </c>
       <c r="E92">
-        <v>400.7335815429688</v>
+        <v>406.0743103027344</v>
       </c>
       <c r="F92">
-        <v>18631100</v>
+        <v>16193500</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3197,22 +3197,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="B93">
-        <v>408.7147844426672</v>
+        <v>406.5227020522181</v>
       </c>
       <c r="C93">
-        <v>411.3452740659007</v>
+        <v>406.8515322742772</v>
       </c>
       <c r="D93">
-        <v>407.1006155180746</v>
+        <v>402.3976068890661</v>
       </c>
       <c r="E93">
-        <v>410.1695251464844</v>
+        <v>406.0145568847656</v>
       </c>
       <c r="F93">
-        <v>27009900</v>
+        <v>14835800</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3223,22 +3223,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B94">
-        <v>414.1751061358801</v>
+        <v>406.7120297863833</v>
       </c>
       <c r="C94">
-        <v>414.3643948484951</v>
+        <v>407.8279969960353</v>
       </c>
       <c r="D94">
-        <v>407.4991897182497</v>
+        <v>403.8623299765809</v>
       </c>
       <c r="E94">
-        <v>408.8642578125</v>
+        <v>406.2536926269531</v>
       </c>
       <c r="F94">
-        <v>16295900</v>
+        <v>13183100</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3249,22 +3249,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B95">
-        <v>409.9802259920579</v>
+        <v>407.1703867236849</v>
       </c>
       <c r="C95">
-        <v>410.6777206909251</v>
+        <v>412.7103883754151</v>
       </c>
       <c r="D95">
-        <v>405.8949650583185</v>
+        <v>404.4601676819315</v>
       </c>
       <c r="E95">
-        <v>406.0743408203125</v>
+        <v>412.1524047851562</v>
       </c>
       <c r="F95">
-        <v>16193500</v>
+        <v>31947300</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3275,22 +3275,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B96">
-        <v>406.5226714964459</v>
+        <v>409.7908782935449</v>
       </c>
       <c r="C96">
-        <v>406.8515016937889</v>
+        <v>414.3743407188878</v>
       </c>
       <c r="D96">
-        <v>402.3975766433515</v>
+        <v>409.4022967199448</v>
       </c>
       <c r="E96">
-        <v>406.0145263671875</v>
+        <v>414.0056762695312</v>
       </c>
       <c r="F96">
-        <v>14835800</v>
+        <v>17800300</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3301,22 +3301,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B97">
-        <v>406.7119992343751</v>
+        <v>411.9531071342025</v>
       </c>
       <c r="C97">
-        <v>407.8279663601961</v>
+        <v>415.8490488621449</v>
       </c>
       <c r="D97">
-        <v>403.8622996386407</v>
+        <v>410.8371399665941</v>
       </c>
       <c r="E97">
-        <v>406.253662109375</v>
+        <v>413.4277954101562</v>
       </c>
       <c r="F97">
-        <v>13183100</v>
+        <v>17596000</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3327,22 +3327,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B98">
-        <v>407.1703867236849</v>
+        <v>412.4712266037999</v>
       </c>
       <c r="C98">
-        <v>412.7103883754151</v>
+        <v>412.7601921625947</v>
       </c>
       <c r="D98">
-        <v>404.4601676819315</v>
+        <v>399.1991537340104</v>
       </c>
       <c r="E98">
-        <v>412.1524047851562</v>
+        <v>401.201904296875</v>
       </c>
       <c r="F98">
-        <v>31947300</v>
+        <v>26919200</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3353,22 +3353,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B99">
-        <v>409.7908782935449</v>
+        <v>401.5207609339292</v>
       </c>
       <c r="C99">
-        <v>414.3743407188878</v>
+        <v>403.702887256129</v>
       </c>
       <c r="D99">
-        <v>409.4022967199448</v>
+        <v>396.9572458137154</v>
       </c>
       <c r="E99">
-        <v>414.0056762695312</v>
+        <v>400.6439208984375</v>
       </c>
       <c r="F99">
-        <v>17800300</v>
+        <v>22344100</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3379,22 +3379,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B100">
-        <v>411.9531071342025</v>
+        <v>404.6594208010195</v>
       </c>
       <c r="C100">
-        <v>415.8490488621449</v>
+        <v>408.3062615866139</v>
       </c>
       <c r="D100">
-        <v>410.8371399665941</v>
+        <v>400.793370009477</v>
       </c>
       <c r="E100">
-        <v>413.4277954101562</v>
+        <v>407.6685791015625</v>
       </c>
       <c r="F100">
-        <v>17596000</v>
+        <v>18718500</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3405,22 +3405,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B101">
-        <v>412.4711952290164</v>
+        <v>406.4927962204137</v>
       </c>
       <c r="C101">
-        <v>412.7601607658309</v>
+        <v>408.943970922281</v>
       </c>
       <c r="D101">
-        <v>399.1991233687723</v>
+        <v>402.8758463576459</v>
       </c>
       <c r="E101">
-        <v>401.2018737792969</v>
+        <v>404.7590637207031</v>
       </c>
       <c r="F101">
-        <v>26919200</v>
+        <v>17971700</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3431,22 +3431,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B102">
-        <v>401.520730349561</v>
+        <v>402.3079090049905</v>
       </c>
       <c r="C102">
-        <v>403.7028565055454</v>
+        <v>404.2209868017705</v>
       </c>
       <c r="D102">
-        <v>396.9572155769562</v>
+        <v>399.8169001180621</v>
       </c>
       <c r="E102">
-        <v>400.6438903808594</v>
+        <v>403.0651550292969</v>
       </c>
       <c r="F102">
-        <v>22344100</v>
+        <v>16120800</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3457,22 +3457,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="B103">
-        <v>404.6594510933356</v>
+        <v>406.1540135997644</v>
       </c>
       <c r="C103">
-        <v>408.3062921519282</v>
+        <v>414.0754340519788</v>
       </c>
       <c r="D103">
-        <v>400.7934000123852</v>
+        <v>405.327012025755</v>
       </c>
       <c r="E103">
-        <v>407.6686096191406</v>
+        <v>413.7864685058594</v>
       </c>
       <c r="F103">
-        <v>18718500</v>
+        <v>22457000</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B104">
-        <v>406.4927962204137</v>
+        <v>416.5963580657627</v>
       </c>
       <c r="C104">
-        <v>408.943970922281</v>
+        <v>416.6760569756253</v>
       </c>
       <c r="D104">
-        <v>402.8758463576459</v>
+        <v>409.9702800987869</v>
       </c>
       <c r="E104">
-        <v>404.7590637207031</v>
+        <v>413.6071472167969</v>
       </c>
       <c r="F104">
-        <v>17971700</v>
+        <v>17115900</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3509,22 +3509,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B105">
-        <v>402.3079090049905</v>
+        <v>418.7286340487209</v>
       </c>
       <c r="C105">
-        <v>404.2209868017705</v>
+        <v>426.2813902733869</v>
       </c>
       <c r="D105">
-        <v>399.8169001180621</v>
+        <v>416.4867259759453</v>
       </c>
       <c r="E105">
-        <v>403.0651550292969</v>
+        <v>423.6907348632812</v>
       </c>
       <c r="F105">
-        <v>16120800</v>
+        <v>34157300</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3535,22 +3535,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B106">
-        <v>406.1540135997644</v>
+        <v>417.7820672194502</v>
       </c>
       <c r="C106">
-        <v>414.0754340519788</v>
+        <v>421.0801606496266</v>
       </c>
       <c r="D106">
-        <v>405.327012025755</v>
+        <v>411.3054439239168</v>
       </c>
       <c r="E106">
-        <v>413.7864685058594</v>
+        <v>414.9223937988281</v>
       </c>
       <c r="F106">
-        <v>22457000</v>
+        <v>45049800</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3561,22 +3561,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>416.5963580657627</v>
+        <v>412.7601865175957</v>
       </c>
       <c r="C107">
-        <v>416.6760569756253</v>
+        <v>419.2168927176027</v>
       </c>
       <c r="D107">
-        <v>409.9702800987869</v>
+        <v>412.2918756147088</v>
       </c>
       <c r="E107">
-        <v>413.6071472167969</v>
+        <v>415.8191528320312</v>
       </c>
       <c r="F107">
-        <v>17115900</v>
+        <v>20106000</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3587,22 +3587,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="B108">
-        <v>418.7286340487209</v>
+        <v>416.3272978235955</v>
       </c>
       <c r="C108">
-        <v>426.2813902733869</v>
+        <v>420.1535143606674</v>
       </c>
       <c r="D108">
-        <v>416.4867259759453</v>
+        <v>414.0554988591103</v>
       </c>
       <c r="E108">
-        <v>423.6907348632812</v>
+        <v>419.8944396972656</v>
       </c>
       <c r="F108">
-        <v>34157300</v>
+        <v>19837900</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3613,22 +3613,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="B109">
-        <v>417.7820672194502</v>
+        <v>420.4823195339551</v>
       </c>
       <c r="C109">
-        <v>421.0801606496266</v>
+        <v>424.428069278898</v>
       </c>
       <c r="D109">
-        <v>411.3054439239168</v>
+        <v>419.1471423578337</v>
       </c>
       <c r="E109">
-        <v>414.9223937988281</v>
+        <v>423.7007141113281</v>
       </c>
       <c r="F109">
-        <v>45049800</v>
+        <v>17860100</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3639,22 +3639,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B110">
-        <v>412.7601865175957</v>
+        <v>428.2841428024405</v>
       </c>
       <c r="C110">
-        <v>419.2168927176027</v>
+        <v>429.2706030363767</v>
       </c>
       <c r="D110">
-        <v>412.2918756147088</v>
+        <v>425.6237622387378</v>
       </c>
       <c r="E110">
-        <v>415.8191528320312</v>
+        <v>427.8258056640625</v>
       </c>
       <c r="F110">
-        <v>20106000</v>
+        <v>21296200</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3665,22 +3665,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B111">
-        <v>416.3272978235955</v>
+        <v>428.1546589937267</v>
       </c>
       <c r="C111">
-        <v>420.1535143606674</v>
+        <v>428.3140568182536</v>
       </c>
       <c r="D111">
-        <v>414.0554988591103</v>
+        <v>424.5377088922747</v>
       </c>
       <c r="E111">
-        <v>419.8944396972656</v>
+        <v>427.1980895996094</v>
       </c>
       <c r="F111">
-        <v>19837900</v>
+        <v>17636500</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3691,22 +3691,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B112">
-        <v>420.4823195339551</v>
+        <v>423.7106482644727</v>
       </c>
       <c r="C112">
-        <v>424.428069278898</v>
+        <v>425.8728574106566</v>
       </c>
       <c r="D112">
-        <v>419.1471423578337</v>
+        <v>420.09369840693</v>
       </c>
       <c r="E112">
-        <v>423.7007141113281</v>
+        <v>421.3392028808594</v>
       </c>
       <c r="F112">
-        <v>17860100</v>
+        <v>18060500</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>45372</v>
+        <v>45377</v>
       </c>
       <c r="B113">
-        <v>428.2841428024405</v>
+        <v>424.0793252148939</v>
       </c>
       <c r="C113">
-        <v>429.2706030363767</v>
+        <v>424.4579634513732</v>
       </c>
       <c r="D113">
-        <v>425.6237622387378</v>
+        <v>419.8346665200353</v>
       </c>
       <c r="E113">
-        <v>427.8258056640625</v>
+        <v>420.1335754394531</v>
       </c>
       <c r="F113">
-        <v>21296200</v>
+        <v>16725600</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3743,22 +3743,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B114">
-        <v>428.1546284078146</v>
+        <v>422.9135522838942</v>
       </c>
       <c r="C114">
-        <v>428.3140262209545</v>
+        <v>422.9235260505365</v>
       </c>
       <c r="D114">
-        <v>424.5376785647452</v>
+        <v>417.5030879587104</v>
       </c>
       <c r="E114">
-        <v>427.1980590820312</v>
+        <v>419.9143676757812</v>
       </c>
       <c r="F114">
-        <v>17636500</v>
+        <v>16705000</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3769,22 +3769,22 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="B115">
-        <v>423.7106482644727</v>
+        <v>419.446036304839</v>
       </c>
       <c r="C115">
-        <v>425.8728574106566</v>
+        <v>420.3527671981367</v>
       </c>
       <c r="D115">
-        <v>420.09369840693</v>
+        <v>417.6126573937555</v>
       </c>
       <c r="E115">
-        <v>421.3392028808594</v>
+        <v>419.2069091796875</v>
       </c>
       <c r="F115">
-        <v>18060500</v>
+        <v>21871200</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>45377</v>
+        <v>45383</v>
       </c>
       <c r="B116">
-        <v>424.0792944107052</v>
+        <v>422.4252949702259</v>
       </c>
       <c r="C116">
-        <v>424.4579326196811</v>
+        <v>426.3511273692628</v>
       </c>
       <c r="D116">
-        <v>419.8346360241692</v>
+        <v>420.70150589095</v>
       </c>
       <c r="E116">
-        <v>420.133544921875</v>
+        <v>423.0430603027344</v>
       </c>
       <c r="F116">
-        <v>16725600</v>
+        <v>16316000</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3821,22 +3821,22 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B117">
-        <v>422.9135215483482</v>
+        <v>418.5991130717621</v>
       </c>
       <c r="C117">
-        <v>422.9234953142656</v>
+        <v>420.8609687656743</v>
       </c>
       <c r="D117">
-        <v>417.5030576163737</v>
+        <v>416.3372877856753</v>
       </c>
       <c r="E117">
-        <v>419.9143371582031</v>
+        <v>419.9243469238281</v>
       </c>
       <c r="F117">
-        <v>16705000</v>
+        <v>17912000</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3847,22 +3847,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B118">
-        <v>419.446036304839</v>
+        <v>418.2204849357083</v>
       </c>
       <c r="C118">
-        <v>420.3527671981367</v>
+        <v>421.7377883513748</v>
       </c>
       <c r="D118">
-        <v>417.6126573937555</v>
+        <v>417.5827720497355</v>
       </c>
       <c r="E118">
-        <v>419.2069091796875</v>
+        <v>418.9378967285156</v>
       </c>
       <c r="F118">
-        <v>21871200</v>
+        <v>16502300</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3873,22 +3873,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B119">
-        <v>422.4253254432396</v>
+        <v>423.4615511455934</v>
       </c>
       <c r="C119">
-        <v>426.3511581254791</v>
+        <v>427.1283394594836</v>
       </c>
       <c r="D119">
-        <v>420.7015362396126</v>
+        <v>416.068253550806</v>
       </c>
       <c r="E119">
-        <v>423.0430908203125</v>
+        <v>416.3771362304688</v>
       </c>
       <c r="F119">
-        <v>16316000</v>
+        <v>19370900</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3899,22 +3899,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B120">
-        <v>418.5991130717621</v>
+        <v>418.4994611872064</v>
       </c>
       <c r="C120">
-        <v>420.8609687656743</v>
+        <v>424.9760842068216</v>
       </c>
       <c r="D120">
-        <v>416.3372877856753</v>
+        <v>416.8155367694806</v>
       </c>
       <c r="E120">
-        <v>419.9243469238281</v>
+        <v>423.9896240234375</v>
       </c>
       <c r="F120">
-        <v>17912000</v>
+        <v>16544300</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3925,22 +3925,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="B121">
-        <v>418.2204849357083</v>
+        <v>423.6409193804279</v>
       </c>
       <c r="C121">
-        <v>421.7377883513748</v>
+        <v>425.7433163180875</v>
       </c>
       <c r="D121">
-        <v>417.5827720497355</v>
+        <v>421.7776191613221</v>
       </c>
       <c r="E121">
-        <v>418.9378967285156</v>
+        <v>423.06298828125</v>
       </c>
       <c r="F121">
-        <v>16502300</v>
+        <v>14272400</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3951,22 +3951,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B122">
-        <v>423.4615511455934</v>
+        <v>424.9063764757034</v>
       </c>
       <c r="C122">
-        <v>427.1283394594836</v>
+        <v>426.2016890622586</v>
       </c>
       <c r="D122">
-        <v>416.068253550806</v>
+        <v>420.1037035674516</v>
       </c>
       <c r="E122">
-        <v>416.3771362304688</v>
+        <v>424.7469482421875</v>
       </c>
       <c r="F122">
-        <v>19370900</v>
+        <v>12512300</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3977,22 +3977,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B123">
-        <v>418.4994913096181</v>
+        <v>420.6716338302425</v>
       </c>
       <c r="C123">
-        <v>424.9761147954023</v>
+        <v>422.5050127857509</v>
       </c>
       <c r="D123">
-        <v>416.8155667706881</v>
+        <v>418.1905986232061</v>
       </c>
       <c r="E123">
-        <v>423.9896545410156</v>
+        <v>421.73779296875</v>
       </c>
       <c r="F123">
-        <v>16544300</v>
+        <v>16216600</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4003,22 +4003,22 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>45390</v>
+        <v>45393</v>
       </c>
       <c r="B124">
-        <v>423.6409193804279</v>
+        <v>424.2885638141968</v>
       </c>
       <c r="C124">
-        <v>425.7433163180875</v>
+        <v>427.8257842273508</v>
       </c>
       <c r="D124">
-        <v>421.7776191613221</v>
+        <v>420.8409856631163</v>
       </c>
       <c r="E124">
-        <v>423.06298828125</v>
+        <v>426.3909606933594</v>
       </c>
       <c r="F124">
-        <v>14272400</v>
+        <v>17966400</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4029,22 +4029,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B125">
-        <v>424.9063459466705</v>
+        <v>422.5249521781749</v>
       </c>
       <c r="C125">
-        <v>426.2016584401591</v>
+        <v>423.650893158757</v>
       </c>
       <c r="D125">
-        <v>420.1036733834853</v>
+        <v>418.2603458072204</v>
       </c>
       <c r="E125">
-        <v>424.7469177246094</v>
+        <v>420.3826904296875</v>
       </c>
       <c r="F125">
-        <v>12512300</v>
+        <v>19232100</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4055,22 +4055,22 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="B126">
-        <v>420.6716338302425</v>
+        <v>425.0657870862989</v>
       </c>
       <c r="C126">
-        <v>422.5050127857509</v>
+        <v>425.2849970973167</v>
       </c>
       <c r="D126">
-        <v>418.1905986232061</v>
+        <v>411.9431381329404</v>
       </c>
       <c r="E126">
-        <v>421.73779296875</v>
+        <v>412.1524047851562</v>
       </c>
       <c r="F126">
-        <v>16216600</v>
+        <v>20273500</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4081,22 +4081,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>45393</v>
+        <v>45398</v>
       </c>
       <c r="B127">
-        <v>424.2885941813025</v>
+        <v>413.0790458991779</v>
       </c>
       <c r="C127">
-        <v>427.8258148476219</v>
+        <v>416.8952582906374</v>
       </c>
       <c r="D127">
-        <v>420.8410157834726</v>
+        <v>412.2420705278667</v>
       </c>
       <c r="E127">
-        <v>426.3909912109375</v>
+        <v>413.0889892578125</v>
       </c>
       <c r="F127">
-        <v>17966400</v>
+        <v>16765600</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4107,22 +4107,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>45394</v>
+        <v>45399</v>
       </c>
       <c r="B128">
-        <v>422.5249521781749</v>
+        <v>415.7494033422172</v>
       </c>
       <c r="C128">
-        <v>423.650893158757</v>
+        <v>417.3735460803219</v>
       </c>
       <c r="D128">
-        <v>418.2603458072204</v>
+        <v>408.8542770301725</v>
       </c>
       <c r="E128">
-        <v>420.3826904296875</v>
+        <v>410.3588562011719</v>
       </c>
       <c r="F128">
-        <v>19232100</v>
+        <v>15855500</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4133,22 +4133,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="B129">
-        <v>425.0657870862989</v>
+        <v>409.1532132353134</v>
       </c>
       <c r="C129">
-        <v>425.2849970973167</v>
+        <v>410.4086914959935</v>
       </c>
       <c r="D129">
-        <v>411.9431381329404</v>
+        <v>402.4972445160664</v>
       </c>
       <c r="E129">
-        <v>412.1524047851562</v>
+        <v>402.8160705566406</v>
       </c>
       <c r="F129">
-        <v>20273500</v>
+        <v>21029900</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4159,22 +4159,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>45398</v>
+        <v>45401</v>
       </c>
       <c r="B130">
-        <v>413.0790458991779</v>
+        <v>402.5769461656378</v>
       </c>
       <c r="C130">
-        <v>416.8952582906374</v>
+        <v>404.0217435519042</v>
       </c>
       <c r="D130">
-        <v>412.2420705278667</v>
+        <v>396.339449885593</v>
       </c>
       <c r="E130">
-        <v>413.0889892578125</v>
+        <v>397.6846008300781</v>
       </c>
       <c r="F130">
-        <v>16765600</v>
+        <v>30276500</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4185,22 +4185,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>45399</v>
+        <v>45404</v>
       </c>
       <c r="B131">
-        <v>415.7494033422172</v>
+        <v>398.6411348292365</v>
       </c>
       <c r="C131">
-        <v>417.3735460803219</v>
+        <v>401.4011922340004</v>
       </c>
       <c r="D131">
-        <v>408.8542770301725</v>
+        <v>394.326720664829</v>
       </c>
       <c r="E131">
-        <v>410.3588562011719</v>
+        <v>399.5179748535156</v>
       </c>
       <c r="F131">
-        <v>15855500</v>
+        <v>20286900</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4211,22 +4211,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>45400</v>
+        <v>45405</v>
       </c>
       <c r="B132">
-        <v>409.1532132353134</v>
+        <v>402.7861765539353</v>
       </c>
       <c r="C132">
-        <v>410.4086914959935</v>
+        <v>406.7319566547882</v>
       </c>
       <c r="D132">
-        <v>402.4972445160664</v>
+        <v>401.6104276183488</v>
       </c>
       <c r="E132">
-        <v>402.8160705566406</v>
+        <v>406.1042175292969</v>
       </c>
       <c r="F132">
-        <v>21029900</v>
+        <v>15734500</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4237,22 +4237,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B133">
-        <v>402.5769461656378</v>
+        <v>408.0870690033951</v>
       </c>
       <c r="C133">
-        <v>404.0217435519042</v>
+        <v>410.9866072208439</v>
       </c>
       <c r="D133">
-        <v>396.339449885593</v>
+        <v>405.3170681233312</v>
       </c>
       <c r="E133">
-        <v>397.6846008300781</v>
+        <v>407.5888671875</v>
       </c>
       <c r="F133">
-        <v>30276500</v>
+        <v>15065300</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B134">
-        <v>398.6411348292365</v>
+        <v>392.6129274363838</v>
       </c>
       <c r="C134">
-        <v>401.4011922340004</v>
+        <v>398.4518686143006</v>
       </c>
       <c r="D134">
-        <v>394.326720664829</v>
+        <v>386.6345055600896</v>
       </c>
       <c r="E134">
-        <v>399.5179748535156</v>
+        <v>397.6049194335938</v>
       </c>
       <c r="F134">
-        <v>20286900</v>
+        <v>40586500</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4289,22 +4289,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="B135">
-        <v>402.7861765539353</v>
+        <v>410.6876705469948</v>
       </c>
       <c r="C135">
-        <v>406.7319566547882</v>
+        <v>411.5146721260624</v>
       </c>
       <c r="D135">
-        <v>401.6104276183488</v>
+        <v>404.300720049804</v>
       </c>
       <c r="E135">
-        <v>406.1042175292969</v>
+        <v>404.8587036132812</v>
       </c>
       <c r="F135">
-        <v>15734500</v>
+        <v>29694700</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4315,22 +4315,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="B136">
-        <v>408.0870384485149</v>
+        <v>403.7925555014032</v>
       </c>
       <c r="C136">
-        <v>410.9865764488653</v>
+        <v>404.8587146423076</v>
       </c>
       <c r="D136">
-        <v>405.3170377758505</v>
+        <v>397.7543521688509</v>
       </c>
       <c r="E136">
-        <v>407.5888366699219</v>
+        <v>400.8033447265625</v>
       </c>
       <c r="F136">
-        <v>15065300</v>
+        <v>19582100</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4341,22 +4341,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>45407</v>
+        <v>45412</v>
       </c>
       <c r="B137">
-        <v>392.6128973019586</v>
+        <v>400.0460812876486</v>
       </c>
       <c r="C137">
-        <v>398.4518380317162</v>
+        <v>400.7136850952025</v>
       </c>
       <c r="D137">
-        <v>386.6344758845294</v>
+        <v>387.7704117493516</v>
       </c>
       <c r="E137">
-        <v>397.6048889160156</v>
+        <v>387.9298095703125</v>
       </c>
       <c r="F137">
-        <v>40586500</v>
+        <v>28781400</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="B138">
-        <v>410.6877015039508</v>
+        <v>391.1979854890888</v>
       </c>
       <c r="C138">
-        <v>411.5147031453564</v>
+        <v>400.2752376954743</v>
       </c>
       <c r="D138">
-        <v>404.3007505253223</v>
+        <v>388.9062694736309</v>
       </c>
       <c r="E138">
-        <v>404.8587341308594</v>
+        <v>393.5196228027344</v>
       </c>
       <c r="F138">
-        <v>29694700</v>
+        <v>23562500</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B139">
-        <v>403.7925555014032</v>
+        <v>396.2298343486377</v>
       </c>
       <c r="C139">
-        <v>404.8587146423076</v>
+        <v>398.4916594318177</v>
       </c>
       <c r="D139">
-        <v>397.7543521688509</v>
+        <v>393.2306499704301</v>
       </c>
       <c r="E139">
-        <v>400.8033447265625</v>
+        <v>396.4091796875</v>
       </c>
       <c r="F139">
-        <v>19582100</v>
+        <v>17709400</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4419,22 +4419,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B140">
-        <v>400.0460498169102</v>
+        <v>400.8332267481025</v>
       </c>
       <c r="C140">
-        <v>400.7136535719452</v>
+        <v>405.6857072666299</v>
       </c>
       <c r="D140">
-        <v>387.7703812443129</v>
+        <v>400.4147238694429</v>
       </c>
       <c r="E140">
-        <v>387.9297790527344</v>
+        <v>405.1974792480469</v>
       </c>
       <c r="F140">
-        <v>28781400</v>
+        <v>17446700</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4445,22 +4445,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>45413</v>
+        <v>45418</v>
       </c>
       <c r="B141">
-        <v>391.1979854890888</v>
+        <v>407.2899567664123</v>
       </c>
       <c r="C141">
-        <v>400.2752376954743</v>
+        <v>412.441346495481</v>
       </c>
       <c r="D141">
-        <v>388.9062694736309</v>
+        <v>404.9085374994166</v>
       </c>
       <c r="E141">
-        <v>393.5196228027344</v>
+        <v>412.0527648925781</v>
       </c>
       <c r="F141">
-        <v>23562500</v>
+        <v>16996600</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4471,22 +4471,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>45414</v>
+        <v>45419</v>
       </c>
       <c r="B142">
-        <v>396.2298648524089</v>
+        <v>413.1687025902024</v>
       </c>
       <c r="C142">
-        <v>398.4916901097156</v>
+        <v>413.1786763562757</v>
       </c>
       <c r="D142">
-        <v>393.2306802433089</v>
+        <v>407.6187274798933</v>
       </c>
       <c r="E142">
-        <v>396.4092102050781</v>
+        <v>407.8678283691406</v>
       </c>
       <c r="F142">
-        <v>17709400</v>
+        <v>20018200</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4497,22 +4497,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="B143">
-        <v>400.8332267481025</v>
+        <v>406.7020963003715</v>
       </c>
       <c r="C143">
-        <v>405.6857072666299</v>
+        <v>410.7474927374785</v>
       </c>
       <c r="D143">
-        <v>400.4147238694429</v>
+        <v>405.2473250594924</v>
       </c>
       <c r="E143">
-        <v>405.1974792480469</v>
+        <v>409.0635681152344</v>
       </c>
       <c r="F143">
-        <v>17446700</v>
+        <v>11792300</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4523,22 +4523,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="B144">
-        <v>407.2899567664123</v>
+        <v>409.0934518243799</v>
       </c>
       <c r="C144">
-        <v>412.441346495481</v>
+        <v>411.2357135795586</v>
       </c>
       <c r="D144">
-        <v>404.9085374994166</v>
+        <v>407.628737249921</v>
       </c>
       <c r="E144">
-        <v>412.0527648925781</v>
+        <v>410.837158203125</v>
       </c>
       <c r="F144">
-        <v>16996600</v>
+        <v>14689700</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4549,22 +4549,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B145">
-        <v>413.1687335044037</v>
+        <v>411.454898796182</v>
       </c>
       <c r="C145">
-        <v>413.1787072712233</v>
+        <v>413.8861259760523</v>
       </c>
       <c r="D145">
-        <v>407.6187579788331</v>
+        <v>410.3189841135991</v>
       </c>
       <c r="E145">
-        <v>407.8678588867188</v>
+        <v>413.2484130859375</v>
       </c>
       <c r="F145">
-        <v>20018200</v>
+        <v>13402300</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4575,22 +4575,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>45420</v>
+        <v>45425</v>
       </c>
       <c r="B146">
-        <v>406.7020659589674</v>
+        <v>416.506666010975</v>
       </c>
       <c r="C146">
-        <v>410.7474620942737</v>
+        <v>416.8454395758238</v>
       </c>
       <c r="D146">
-        <v>405.2472948266194</v>
+        <v>409.3425219103111</v>
       </c>
       <c r="E146">
-        <v>409.0635375976562</v>
+        <v>412.2320861816406</v>
       </c>
       <c r="F146">
-        <v>11792300</v>
+        <v>15440200</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B147">
-        <v>409.0934214363268</v>
+        <v>410.5382086979875</v>
       </c>
       <c r="C147">
-        <v>411.2356830323753</v>
+        <v>415.9885377174583</v>
       </c>
       <c r="D147">
-        <v>407.628706970669</v>
+        <v>410.0698977801234</v>
       </c>
       <c r="E147">
-        <v>410.8371276855469</v>
+        <v>415.0618896484375</v>
       </c>
       <c r="F147">
-        <v>14689700</v>
+        <v>15109300</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -4627,25 +4627,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>45422</v>
+        <v>45427</v>
       </c>
       <c r="B148">
-        <v>411.454898796182</v>
+        <v>417.1481137200525</v>
       </c>
       <c r="C148">
-        <v>413.8861259760523</v>
+        <v>423.04748418125</v>
       </c>
       <c r="D148">
-        <v>410.3189841135991</v>
+        <v>416.5192423337448</v>
       </c>
       <c r="E148">
-        <v>413.2484130859375</v>
+        <v>422.3187866210938</v>
       </c>
       <c r="F148">
-        <v>13402300</v>
+        <v>22239500</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4653,22 +4653,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B149">
-        <v>416.506666010975</v>
+        <v>421.0411147304799</v>
       </c>
       <c r="C149">
-        <v>416.8454395758238</v>
+        <v>424.6546274680923</v>
       </c>
       <c r="D149">
-        <v>409.3425219103111</v>
+        <v>419.5937417467572</v>
       </c>
       <c r="E149">
-        <v>412.2320861816406</v>
+        <v>420.2325744628906</v>
       </c>
       <c r="F149">
-        <v>15440200</v>
+        <v>17530100</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4679,22 +4679,22 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="B150">
-        <v>410.5382086979875</v>
+        <v>421.7797738940241</v>
       </c>
       <c r="C150">
-        <v>415.9885377174583</v>
+        <v>422.1590950714511</v>
       </c>
       <c r="D150">
-        <v>410.0698977801234</v>
+        <v>417.2778785450943</v>
       </c>
       <c r="E150">
-        <v>415.0618896484375</v>
+        <v>419.4539489746094</v>
       </c>
       <c r="F150">
-        <v>15109300</v>
+        <v>15352200</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4705,25 +4705,25 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>45427</v>
+        <v>45432</v>
       </c>
       <c r="B151">
-        <v>417.1481137200525</v>
+        <v>419.4539624148243</v>
       </c>
       <c r="C151">
-        <v>423.04748418125</v>
+        <v>426.0021574252656</v>
       </c>
       <c r="D151">
-        <v>416.5192423337448</v>
+        <v>419.2343570136284</v>
       </c>
       <c r="E151">
-        <v>422.3187866210938</v>
+        <v>424.5747375488281</v>
       </c>
       <c r="F151">
-        <v>22239500</v>
+        <v>16272100</v>
       </c>
       <c r="G151">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -4731,22 +4731,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>45428</v>
+        <v>45433</v>
       </c>
       <c r="B152">
-        <v>421.0411147304799</v>
+        <v>426.0620511343007</v>
       </c>
       <c r="C152">
-        <v>424.6546274680923</v>
+        <v>432.191018913993</v>
       </c>
       <c r="D152">
-        <v>419.5937417467572</v>
+        <v>424.0856329672077</v>
       </c>
       <c r="E152">
-        <v>420.2325744628906</v>
+        <v>428.2680969238281</v>
       </c>
       <c r="F152">
-        <v>17530100</v>
+        <v>21453300</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4757,22 +4757,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>45429</v>
+        <v>45434</v>
       </c>
       <c r="B153">
-        <v>421.7797738940241</v>
+        <v>429.3162033054389</v>
       </c>
       <c r="C153">
-        <v>422.1590950714511</v>
+        <v>431.6320366067369</v>
       </c>
       <c r="D153">
-        <v>417.2778785450943</v>
+        <v>426.3615372956945</v>
       </c>
       <c r="E153">
-        <v>419.4539489746094</v>
+        <v>429.7454223632812</v>
       </c>
       <c r="F153">
-        <v>15352200</v>
+        <v>18073700</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4783,22 +4783,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B154">
-        <v>419.4539624148243</v>
+        <v>432.1910106070575</v>
       </c>
       <c r="C154">
-        <v>426.0021574252656</v>
+        <v>432.8198819981989</v>
       </c>
       <c r="D154">
-        <v>419.2343570136284</v>
+        <v>424.654606594968</v>
       </c>
       <c r="E154">
-        <v>424.5747375488281</v>
+        <v>426.2317504882812</v>
       </c>
       <c r="F154">
-        <v>16272100</v>
+        <v>17211700</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4809,22 +4809,22 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>45433</v>
+        <v>45436</v>
       </c>
       <c r="B155">
-        <v>426.0620511343007</v>
+        <v>426.4214201614011</v>
       </c>
       <c r="C155">
-        <v>432.191018913993</v>
+        <v>430.284452546189</v>
       </c>
       <c r="D155">
-        <v>424.0856329672077</v>
+        <v>423.6464230389501</v>
       </c>
       <c r="E155">
-        <v>428.2680969238281</v>
+        <v>429.3860778808594</v>
       </c>
       <c r="F155">
-        <v>21453300</v>
+        <v>11845800</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -4835,22 +4835,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="B156">
-        <v>429.3162033054389</v>
+        <v>428.8570153768908</v>
       </c>
       <c r="C156">
-        <v>431.6320366067369</v>
+        <v>430.0448767681172</v>
       </c>
       <c r="D156">
-        <v>426.3615372956945</v>
+        <v>425.8324681657636</v>
       </c>
       <c r="E156">
-        <v>429.7454223632812</v>
+        <v>429.5457763671875</v>
       </c>
       <c r="F156">
-        <v>18073700</v>
+        <v>15718000</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4861,22 +4861,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="B157">
-        <v>432.1910106070575</v>
+        <v>424.9241078592897</v>
       </c>
       <c r="C157">
-        <v>432.8198819981989</v>
+        <v>430.1646621440202</v>
       </c>
       <c r="D157">
-        <v>424.654606594968</v>
+        <v>424.9241078592897</v>
       </c>
       <c r="E157">
-        <v>426.2317504882812</v>
+        <v>428.3978576660156</v>
       </c>
       <c r="F157">
-        <v>17211700</v>
+        <v>15517100</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4887,22 +4887,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>426.4214201614011</v>
+        <v>423.5365985674188</v>
       </c>
       <c r="C158">
-        <v>430.284452546189</v>
+        <v>423.5365985674188</v>
       </c>
       <c r="D158">
-        <v>423.6464230389501</v>
+        <v>413.4947006882176</v>
       </c>
       <c r="E158">
-        <v>429.3860778808594</v>
+        <v>413.9239501953125</v>
       </c>
       <c r="F158">
-        <v>11845800</v>
+        <v>28424800</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4913,22 +4913,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>45440</v>
+        <v>45443</v>
       </c>
       <c r="B159">
-        <v>428.8570153768908</v>
+        <v>416.0001981551101</v>
       </c>
       <c r="C159">
-        <v>430.0448767681172</v>
+        <v>416.0001981551101</v>
       </c>
       <c r="D159">
-        <v>425.8324681657636</v>
+        <v>403.7822296778057</v>
       </c>
       <c r="E159">
-        <v>429.5457763671875</v>
+        <v>414.3831176757812</v>
       </c>
       <c r="F159">
-        <v>15718000</v>
+        <v>47995300</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4939,22 +4939,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>45441</v>
+        <v>45446</v>
       </c>
       <c r="B160">
-        <v>424.9241078592897</v>
+        <v>414.7823944158675</v>
       </c>
       <c r="C160">
-        <v>430.1646621440202</v>
+        <v>415.6807690806093</v>
       </c>
       <c r="D160">
-        <v>424.9241078592897</v>
+        <v>408.184301476178</v>
       </c>
       <c r="E160">
-        <v>428.3978576660156</v>
+        <v>412.7760009765625</v>
       </c>
       <c r="F160">
-        <v>15517100</v>
+        <v>17484700</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4965,22 +4965,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B161">
-        <v>423.5365985674188</v>
+        <v>411.6879758758687</v>
       </c>
       <c r="C161">
-        <v>423.5365985674188</v>
+        <v>415.6907710968031</v>
       </c>
       <c r="D161">
-        <v>413.4947006882176</v>
+        <v>408.9429234942185</v>
       </c>
       <c r="E161">
-        <v>413.9239501953125</v>
+        <v>415.3214416503906</v>
       </c>
       <c r="F161">
-        <v>28424800</v>
+        <v>14348900</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4991,22 +4991,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B162">
-        <v>416.0001981551101</v>
+        <v>417.0582741968618</v>
       </c>
       <c r="C162">
-        <v>416.0001981551101</v>
+        <v>423.316982252091</v>
       </c>
       <c r="D162">
-        <v>403.7822296778057</v>
+        <v>415.5509812394125</v>
       </c>
       <c r="E162">
-        <v>414.3831176757812</v>
+        <v>423.2471313476562</v>
       </c>
       <c r="F162">
-        <v>47995300</v>
+        <v>16988000</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -5017,22 +5017,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B163">
-        <v>414.7823944158675</v>
+        <v>423.2471333720698</v>
       </c>
       <c r="C163">
-        <v>415.6807690806093</v>
+        <v>424.5447822344087</v>
       </c>
       <c r="D163">
-        <v>408.184301476178</v>
+        <v>419.8232814568955</v>
       </c>
       <c r="E163">
-        <v>412.7760009765625</v>
+        <v>423.7561950683594</v>
       </c>
       <c r="F163">
-        <v>17484700</v>
+        <v>14861300</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -5043,22 +5043,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>45447</v>
+        <v>45450</v>
       </c>
       <c r="B164">
-        <v>411.6879758758687</v>
+        <v>425.4332109319366</v>
       </c>
       <c r="C164">
-        <v>415.6907710968031</v>
+        <v>425.5130535956995</v>
       </c>
       <c r="D164">
-        <v>408.9429234942185</v>
+        <v>422.2389560533201</v>
       </c>
       <c r="E164">
-        <v>415.3214416503906</v>
+        <v>423.0874328613281</v>
       </c>
       <c r="F164">
-        <v>14348900</v>
+        <v>13621700</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5069,22 +5069,22 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>45448</v>
+        <v>45453</v>
       </c>
       <c r="B165">
-        <v>417.0582741968618</v>
+        <v>423.9359096003005</v>
       </c>
       <c r="C165">
-        <v>423.316982252091</v>
+        <v>427.3098028561661</v>
       </c>
       <c r="D165">
-        <v>415.5509812394125</v>
+        <v>423.1273693556417</v>
       </c>
       <c r="E165">
-        <v>423.2471313476562</v>
+        <v>427.1001892089844</v>
       </c>
       <c r="F165">
-        <v>16988000</v>
+        <v>14003000</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5095,22 +5095,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B166">
-        <v>423.2471333720698</v>
+        <v>424.714492210749</v>
       </c>
       <c r="C166">
-        <v>424.5447822344087</v>
+        <v>432.041282511072</v>
       </c>
       <c r="D166">
-        <v>419.8232814568955</v>
+        <v>424.4848950575601</v>
       </c>
       <c r="E166">
-        <v>423.7561950683594</v>
+        <v>431.9015197753906</v>
       </c>
       <c r="F166">
-        <v>14861300</v>
+        <v>14551100</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -5121,22 +5121,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="B167">
-        <v>425.4332109319366</v>
+        <v>434.5367860452445</v>
       </c>
       <c r="C167">
-        <v>425.5130535956995</v>
+        <v>442.6022352259115</v>
       </c>
       <c r="D167">
-        <v>422.2389560533201</v>
+        <v>432.4705030473988</v>
       </c>
       <c r="E167">
-        <v>423.0874328613281</v>
+        <v>440.2664489746094</v>
       </c>
       <c r="F167">
-        <v>13621700</v>
+        <v>22366200</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -5147,22 +5147,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B168">
-        <v>423.9359096003005</v>
+        <v>440.0568553290733</v>
       </c>
       <c r="C168">
-        <v>427.3098028561661</v>
+        <v>442.5922940436297</v>
       </c>
       <c r="D168">
-        <v>423.1273693556417</v>
+        <v>438.5795070893568</v>
       </c>
       <c r="E168">
-        <v>427.1001892089844</v>
+        <v>440.7855224609375</v>
       </c>
       <c r="F168">
-        <v>14003000</v>
+        <v>15960600</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5173,22 +5173,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B169">
-        <v>424.714492210749</v>
+        <v>437.4914526433868</v>
       </c>
       <c r="C169">
-        <v>432.041282511072</v>
+        <v>442.3427244522355</v>
       </c>
       <c r="D169">
-        <v>424.4848950575601</v>
+        <v>435.9342618066382</v>
       </c>
       <c r="E169">
-        <v>431.9015197753906</v>
+        <v>441.7737426757812</v>
       </c>
       <c r="F169">
-        <v>14551100</v>
+        <v>13582000</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5199,22 +5199,22 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>45455</v>
+        <v>45460</v>
       </c>
       <c r="B170">
-        <v>434.5367860452445</v>
+        <v>441.7936939788958</v>
       </c>
       <c r="C170">
-        <v>442.6022352259115</v>
+        <v>450.1286768563718</v>
       </c>
       <c r="D170">
-        <v>432.4705030473988</v>
+        <v>439.9270633334212</v>
       </c>
       <c r="E170">
-        <v>440.2664489746094</v>
+        <v>447.5632934570312</v>
       </c>
       <c r="F170">
-        <v>22366200</v>
+        <v>20790000</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5225,22 +5225,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2">
-        <v>45456</v>
+        <v>45461</v>
       </c>
       <c r="B171">
-        <v>440.0568553290733</v>
+        <v>448.9008887251347</v>
       </c>
       <c r="C171">
-        <v>442.5922940436297</v>
+        <v>449.3301382355733</v>
       </c>
       <c r="D171">
-        <v>438.5795070893568</v>
+        <v>444.0895838547788</v>
       </c>
       <c r="E171">
-        <v>440.7855224609375</v>
+        <v>445.5369567871094</v>
       </c>
       <c r="F171">
-        <v>15960600</v>
+        <v>17112500</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5251,22 +5251,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B172">
-        <v>437.4914526433868</v>
+        <v>445.4970284658229</v>
       </c>
       <c r="C172">
-        <v>442.3427244522355</v>
+        <v>445.7266256285528</v>
       </c>
       <c r="D172">
-        <v>435.9342618066382</v>
+        <v>440.4760793942245</v>
       </c>
       <c r="E172">
-        <v>441.7737426757812</v>
+        <v>444.8981323242188</v>
       </c>
       <c r="F172">
-        <v>13582000</v>
+        <v>19877400</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -5277,22 +5277,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="B173">
-        <v>441.7936939788958</v>
+        <v>446.5750882817075</v>
       </c>
       <c r="C173">
-        <v>450.1286768563718</v>
+        <v>449.769312632082</v>
       </c>
       <c r="D173">
-        <v>439.9270633334212</v>
+        <v>445.7066584412535</v>
       </c>
       <c r="E173">
-        <v>447.5632934570312</v>
+        <v>448.9707641601562</v>
       </c>
       <c r="F173">
-        <v>20790000</v>
+        <v>34486200</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -5303,22 +5303,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2">
-        <v>45461</v>
+        <v>45467</v>
       </c>
       <c r="B174">
-        <v>448.9008887251347</v>
+        <v>448.990735754277</v>
       </c>
       <c r="C174">
-        <v>449.3301382355733</v>
+        <v>451.9354404836348</v>
       </c>
       <c r="D174">
-        <v>444.0895838547788</v>
+        <v>445.6068506710909</v>
       </c>
       <c r="E174">
-        <v>445.5369567871094</v>
+        <v>446.8645935058594</v>
       </c>
       <c r="F174">
-        <v>17112500</v>
+        <v>15913700</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -5329,22 +5329,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B175">
-        <v>445.4970284658229</v>
+        <v>447.4435174764647</v>
       </c>
       <c r="C175">
-        <v>445.7266256285528</v>
+        <v>450.607827478814</v>
       </c>
       <c r="D175">
-        <v>440.4760793942245</v>
+        <v>445.946216246761</v>
       </c>
       <c r="E175">
-        <v>444.8981323242188</v>
+        <v>450.138671875</v>
       </c>
       <c r="F175">
-        <v>19877400</v>
+        <v>16747500</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -5355,22 +5355,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B176">
-        <v>446.5750882817075</v>
+        <v>448.1921782643384</v>
       </c>
       <c r="C176">
-        <v>449.769312632082</v>
+        <v>452.7839082321868</v>
       </c>
       <c r="D176">
-        <v>445.7066584412535</v>
+        <v>447.3836380189599</v>
       </c>
       <c r="E176">
-        <v>448.9707641601562</v>
+        <v>451.3464965820312</v>
       </c>
       <c r="F176">
-        <v>34486200</v>
+        <v>16507000</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -5381,22 +5381,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B177">
-        <v>448.990735754277</v>
+        <v>451.3664398492068</v>
       </c>
       <c r="C177">
-        <v>451.9354404836348</v>
+        <v>455.3492818389116</v>
       </c>
       <c r="D177">
-        <v>445.6068506710909</v>
+        <v>450.9571738571483</v>
       </c>
       <c r="E177">
-        <v>446.8645935058594</v>
+        <v>452.0352478027344</v>
       </c>
       <c r="F177">
-        <v>15913700</v>
+        <v>14806300</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -5407,22 +5407,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B178">
-        <v>447.4435174764647</v>
+        <v>452.254858240921</v>
       </c>
       <c r="C178">
-        <v>450.607827478814</v>
+        <v>454.560699725703</v>
       </c>
       <c r="D178">
-        <v>445.946216246761</v>
+        <v>445.6068370446384</v>
       </c>
       <c r="E178">
-        <v>450.138671875</v>
+        <v>446.1458740234375</v>
       </c>
       <c r="F178">
-        <v>16747500</v>
+        <v>28362300</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5433,22 +5433,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B179">
-        <v>448.1921782643384</v>
+        <v>447.8527763611413</v>
       </c>
       <c r="C179">
-        <v>452.7839082321868</v>
+        <v>456.547096834103</v>
       </c>
       <c r="D179">
-        <v>447.3836380189599</v>
+        <v>444.8581739492551</v>
       </c>
       <c r="E179">
-        <v>451.3464965820312</v>
+        <v>455.9082641601562</v>
       </c>
       <c r="F179">
-        <v>16507000</v>
+        <v>17662800</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5459,22 +5459,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B180">
-        <v>451.3664398492068</v>
+        <v>452.3846266956562</v>
       </c>
       <c r="C180">
-        <v>455.3492818389116</v>
+        <v>458.763114135567</v>
       </c>
       <c r="D180">
-        <v>450.9571738571483</v>
+        <v>452.2947618141318</v>
       </c>
       <c r="E180">
-        <v>452.0352478027344</v>
+        <v>458.4536743164062</v>
       </c>
       <c r="F180">
-        <v>14806300</v>
+        <v>13979800</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -5485,22 +5485,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B181">
-        <v>452.254858240921</v>
+        <v>457.3656343023017</v>
       </c>
       <c r="C181">
-        <v>454.560699725703</v>
+        <v>460.1905292078966</v>
       </c>
       <c r="D181">
-        <v>445.6068370446384</v>
+        <v>457.0561944863674</v>
       </c>
       <c r="E181">
-        <v>446.1458740234375</v>
+        <v>459.9409790039062</v>
       </c>
       <c r="F181">
-        <v>28362300</v>
+        <v>9932800</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5511,22 +5511,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2">
-        <v>45474</v>
+        <v>45478</v>
       </c>
       <c r="B182">
-        <v>447.8527763611413</v>
+        <v>458.7830716850438</v>
       </c>
       <c r="C182">
-        <v>456.547096834103</v>
+        <v>467.5073677076921</v>
       </c>
       <c r="D182">
-        <v>444.8581739492551</v>
+        <v>458.1442389904913</v>
       </c>
       <c r="E182">
-        <v>455.9082641601562</v>
+        <v>466.7187805175781</v>
       </c>
       <c r="F182">
-        <v>17662800</v>
+        <v>16000300</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5537,22 +5537,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B183">
-        <v>452.3846266956562</v>
+        <v>465.7105933902801</v>
       </c>
       <c r="C183">
-        <v>458.763114135567</v>
+        <v>466.8585487354724</v>
       </c>
       <c r="D183">
-        <v>452.2947618141318</v>
+        <v>463.6243572737453</v>
       </c>
       <c r="E183">
-        <v>458.4536743164062</v>
+        <v>465.4011535644531</v>
       </c>
       <c r="F183">
-        <v>13979800</v>
+        <v>12962300</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -5563,22 +5563,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2">
-        <v>45476</v>
+        <v>45482</v>
       </c>
       <c r="B184">
-        <v>457.3656343023017</v>
+        <v>466.1597961164965</v>
       </c>
       <c r="C184">
-        <v>460.1905292078966</v>
+        <v>466.4891889928316</v>
       </c>
       <c r="D184">
-        <v>457.0561944863674</v>
+        <v>457.1759884825597</v>
       </c>
       <c r="E184">
-        <v>459.9409790039062</v>
+        <v>458.7132263183594</v>
       </c>
       <c r="F184">
-        <v>9932800</v>
+        <v>17207200</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5589,22 +5589,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B185">
-        <v>458.7830716850438</v>
+        <v>460.3901839011476</v>
       </c>
       <c r="C185">
-        <v>467.5073677076921</v>
+        <v>465.6207464553715</v>
       </c>
       <c r="D185">
-        <v>458.1442389904913</v>
+        <v>458.0344141228908</v>
       </c>
       <c r="E185">
-        <v>466.7187805175781</v>
+        <v>465.4111328125</v>
       </c>
       <c r="F185">
-        <v>16000300</v>
+        <v>18196100</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5615,22 +5615,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B186">
-        <v>465.7105933902801</v>
+        <v>462.1470291059628</v>
       </c>
       <c r="C186">
-        <v>466.8585487354724</v>
+        <v>463.9437784065974</v>
       </c>
       <c r="D186">
-        <v>463.6243572737453</v>
+        <v>450.7375705201163</v>
       </c>
       <c r="E186">
-        <v>465.4011535644531</v>
+        <v>453.8819274902344</v>
       </c>
       <c r="F186">
-        <v>12962300</v>
+        <v>23111200</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5641,22 +5641,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B187">
-        <v>466.1597961164965</v>
+        <v>453.5125737072739</v>
       </c>
       <c r="C187">
-        <v>466.4891889928316</v>
+        <v>455.5389201916152</v>
       </c>
       <c r="D187">
-        <v>457.1759884825597</v>
+        <v>449.8392019313785</v>
       </c>
       <c r="E187">
-        <v>458.7132263183594</v>
+        <v>452.7339782714844</v>
       </c>
       <c r="F187">
-        <v>17207200</v>
+        <v>16324300</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -5667,22 +5667,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B188">
-        <v>460.3901839011476</v>
+        <v>452.4844332949432</v>
       </c>
       <c r="C188">
-        <v>465.6207464553715</v>
+        <v>456.4373305955963</v>
       </c>
       <c r="D188">
-        <v>458.0344141228908</v>
+        <v>450.6178025787489</v>
       </c>
       <c r="E188">
-        <v>465.4111328125</v>
+        <v>453.1432495117188</v>
       </c>
       <c r="F188">
-        <v>18196100</v>
+        <v>14429400</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -5693,22 +5693,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B189">
-        <v>462.1470291059628</v>
+        <v>453.4027989347938</v>
       </c>
       <c r="C189">
-        <v>463.9437784065974</v>
+        <v>453.4826416005614</v>
       </c>
       <c r="D189">
-        <v>450.7375705201163</v>
+        <v>445.8564028188264</v>
       </c>
       <c r="E189">
-        <v>453.8819274902344</v>
+        <v>448.7112426757812</v>
       </c>
       <c r="F189">
-        <v>23111200</v>
+        <v>17175700</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -5719,22 +5719,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2">
-        <v>45485</v>
+        <v>45490</v>
       </c>
       <c r="B190">
-        <v>453.5125737072739</v>
+        <v>441.7936959321082</v>
       </c>
       <c r="C190">
-        <v>455.5389201916152</v>
+        <v>444.0496395265401</v>
       </c>
       <c r="D190">
-        <v>449.8392019313785</v>
+        <v>438.3898274906823</v>
       </c>
       <c r="E190">
-        <v>452.7339782714844</v>
+        <v>442.7220153808594</v>
       </c>
       <c r="F190">
-        <v>16324300</v>
+        <v>21778000</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -5745,22 +5745,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B191">
-        <v>452.4844332949432</v>
+        <v>443.5405562956479</v>
       </c>
       <c r="C191">
-        <v>456.4373305955963</v>
+        <v>443.8499961181311</v>
       </c>
       <c r="D191">
-        <v>450.6178025787489</v>
+        <v>433.6184375379909</v>
       </c>
       <c r="E191">
-        <v>453.1432495117188</v>
+        <v>439.5776977539062</v>
       </c>
       <c r="F191">
-        <v>14429400</v>
+        <v>20794800</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5771,22 +5771,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B192">
-        <v>453.4027989347938</v>
+        <v>432.320782775431</v>
       </c>
       <c r="C192">
-        <v>453.4826416005614</v>
+        <v>440.3463259263841</v>
       </c>
       <c r="D192">
-        <v>445.8564028188264</v>
+        <v>431.2227557769831</v>
       </c>
       <c r="E192">
-        <v>448.7112426757812</v>
+        <v>436.3235473632812</v>
       </c>
       <c r="F192">
-        <v>17175700</v>
+        <v>20940400</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2">
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="B193">
-        <v>441.7936959321082</v>
+        <v>440.9951415745854</v>
       </c>
       <c r="C193">
-        <v>444.0496395265401</v>
+        <v>443.8000833958314</v>
       </c>
       <c r="D193">
-        <v>438.3898274906823</v>
+        <v>438.1203183860428</v>
       </c>
       <c r="E193">
-        <v>442.7220153808594</v>
+        <v>442.14306640625</v>
       </c>
       <c r="F193">
-        <v>21778000</v>
+        <v>15808800</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5823,22 +5823,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B194">
-        <v>443.5405562956479</v>
+        <v>443.1013491115581</v>
       </c>
       <c r="C194">
-        <v>443.8499961181311</v>
+        <v>447.5832916213236</v>
       </c>
       <c r="D194">
-        <v>433.6184375379909</v>
+        <v>442.3028006204312</v>
       </c>
       <c r="E194">
-        <v>439.5776977539062</v>
+        <v>444.0496520996094</v>
       </c>
       <c r="F194">
-        <v>20794800</v>
+        <v>13107100</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5849,22 +5849,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2">
-        <v>45492</v>
+        <v>45497</v>
       </c>
       <c r="B195">
-        <v>432.320782775431</v>
+        <v>439.6575641864461</v>
       </c>
       <c r="C195">
-        <v>440.3463259263841</v>
+        <v>440.6857098144858</v>
       </c>
       <c r="D195">
-        <v>431.2227557769831</v>
+        <v>426.8206857763536</v>
       </c>
       <c r="E195">
-        <v>436.3235473632812</v>
+        <v>428.1283264160156</v>
       </c>
       <c r="F195">
-        <v>20940400</v>
+        <v>26805800</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -5875,22 +5875,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B196">
-        <v>440.9951415745854</v>
+        <v>428.0284992274044</v>
       </c>
       <c r="C196">
-        <v>443.8000833958314</v>
+        <v>429.0267000469298</v>
       </c>
       <c r="D196">
-        <v>438.1203183860428</v>
+        <v>416.7588339080866</v>
       </c>
       <c r="E196">
-        <v>442.14306640625</v>
+        <v>417.647216796875</v>
       </c>
       <c r="F196">
-        <v>15808800</v>
+        <v>29943800</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -5901,22 +5901,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B197">
-        <v>443.1013491115581</v>
+        <v>417.4475956401735</v>
       </c>
       <c r="C197">
-        <v>447.5832916213236</v>
+        <v>428.1483096626945</v>
       </c>
       <c r="D197">
-        <v>442.3028006204312</v>
+        <v>416.5192457247621</v>
       </c>
       <c r="E197">
-        <v>444.0496520996094</v>
+        <v>424.5048522949219</v>
       </c>
       <c r="F197">
-        <v>13107100</v>
+        <v>23583800</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5927,22 +5927,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2">
-        <v>45497</v>
+        <v>45502</v>
       </c>
       <c r="B198">
-        <v>439.6575641864461</v>
+        <v>430.8034993953489</v>
       </c>
       <c r="C198">
-        <v>440.6857098144858</v>
+        <v>431.3724811776246</v>
       </c>
       <c r="D198">
-        <v>426.8206857763536</v>
+        <v>423.93590329611</v>
       </c>
       <c r="E198">
-        <v>428.1283264160156</v>
+        <v>425.9622497558594</v>
       </c>
       <c r="F198">
-        <v>26805800</v>
+        <v>15125800</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5953,22 +5953,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B199">
-        <v>428.0284992274044</v>
+        <v>426.950470567327</v>
       </c>
       <c r="C199">
-        <v>429.0267000469298</v>
+        <v>428.2780642998072</v>
       </c>
       <c r="D199">
-        <v>416.7588339080866</v>
+        <v>416.6090938774579</v>
       </c>
       <c r="E199">
-        <v>417.647216796875</v>
+        <v>422.1591186523438</v>
       </c>
       <c r="F199">
-        <v>29943800</v>
+        <v>32687600</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5979,22 +5979,22 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B200">
-        <v>417.4475956401735</v>
+        <v>419.7434462343891</v>
       </c>
       <c r="C200">
-        <v>428.1483096626945</v>
+        <v>421.0211420698181</v>
       </c>
       <c r="D200">
-        <v>416.5192457247621</v>
+        <v>411.4683528789598</v>
       </c>
       <c r="E200">
-        <v>424.5048522949219</v>
+        <v>417.5973205566406</v>
       </c>
       <c r="F200">
-        <v>23583800</v>
+        <v>42891400</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -6005,22 +6005,22 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B201">
-        <v>430.8034993953489</v>
+        <v>420.0329297410617</v>
       </c>
       <c r="C201">
-        <v>431.3724811776246</v>
+        <v>426.6909121222585</v>
       </c>
       <c r="D201">
-        <v>423.93590329611</v>
+        <v>412.3467712755952</v>
       </c>
       <c r="E201">
-        <v>425.9622497558594</v>
+        <v>416.3595275878906</v>
       </c>
       <c r="F201">
-        <v>15125800</v>
+        <v>30296400</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B202">
-        <v>426.950470567327</v>
+        <v>411.747838603881</v>
       </c>
       <c r="C202">
-        <v>428.2780642998072</v>
+        <v>414.2533323621259</v>
       </c>
       <c r="D202">
-        <v>416.6090938774579</v>
+        <v>403.6125081693036</v>
       </c>
       <c r="E202">
-        <v>422.1591186523438</v>
+        <v>407.7550354003906</v>
       </c>
       <c r="F202">
-        <v>32687600</v>
+        <v>29437900</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -6057,22 +6057,22 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B203">
-        <v>419.7434462343891</v>
+        <v>388.4698348608741</v>
       </c>
       <c r="C203">
-        <v>421.0211420698181</v>
+        <v>400.3184739745593</v>
       </c>
       <c r="D203">
-        <v>411.4683528789598</v>
+        <v>384.8862670330075</v>
       </c>
       <c r="E203">
-        <v>417.5973205566406</v>
+        <v>394.4390563964844</v>
       </c>
       <c r="F203">
-        <v>42891400</v>
+        <v>40709200</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -6083,22 +6083,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B204">
-        <v>420.0329297410617</v>
+        <v>399.2803346769082</v>
       </c>
       <c r="C204">
-        <v>426.6909121222585</v>
+        <v>404.9401468245291</v>
       </c>
       <c r="D204">
-        <v>412.3467712755952</v>
+        <v>397.7830334218698</v>
       </c>
       <c r="E204">
-        <v>416.3595275878906</v>
+        <v>398.8910217285156</v>
       </c>
       <c r="F204">
-        <v>30296400</v>
+        <v>24946500</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -6109,22 +6109,22 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B205">
-        <v>411.747838603881</v>
+        <v>407.9048180980064</v>
       </c>
       <c r="C205">
-        <v>414.2533323621259</v>
+        <v>409.3421993250032</v>
       </c>
       <c r="D205">
-        <v>403.6125081693036</v>
+        <v>396.7549009776476</v>
       </c>
       <c r="E205">
-        <v>407.7550354003906</v>
+        <v>397.7131652832031</v>
       </c>
       <c r="F205">
-        <v>29437900</v>
+        <v>20650900</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -6135,22 +6135,22 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B206">
-        <v>388.4698348608741</v>
+        <v>401.7159344178802</v>
       </c>
       <c r="C206">
-        <v>400.3184739745593</v>
+        <v>405.1297641120261</v>
       </c>
       <c r="D206">
-        <v>384.8862670330075</v>
+        <v>399.2204324052767</v>
       </c>
       <c r="E206">
-        <v>394.4390563964844</v>
+        <v>401.9654846191406</v>
       </c>
       <c r="F206">
-        <v>40709200</v>
+        <v>20203000</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -6161,22 +6161,22 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B207">
-        <v>399.2803346769082</v>
+        <v>403.3030798438404</v>
       </c>
       <c r="C207">
-        <v>404.9401468245291</v>
+        <v>407.3158362110672</v>
       </c>
       <c r="D207">
-        <v>397.7830334218698</v>
+        <v>401.5362753425401</v>
       </c>
       <c r="E207">
-        <v>398.8910217285156</v>
+        <v>405.2894897460938</v>
       </c>
       <c r="F207">
-        <v>24946500</v>
+        <v>19276700</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -6187,22 +6187,22 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B208">
-        <v>407.9048180980064</v>
+        <v>406.3276141642008</v>
       </c>
       <c r="C208">
-        <v>409.3421993250032</v>
+        <v>408.0245677048975</v>
       </c>
       <c r="D208">
-        <v>396.7549009776476</v>
+        <v>403.5126806044117</v>
       </c>
       <c r="E208">
-        <v>397.7131652832031</v>
+        <v>406.0780639648438</v>
       </c>
       <c r="F208">
-        <v>20650900</v>
+        <v>16762900</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -6213,22 +6213,22 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B209">
-        <v>401.7159344178802</v>
+        <v>408.8530756322428</v>
       </c>
       <c r="C209">
-        <v>405.1297641120261</v>
+        <v>414.2034479390117</v>
       </c>
       <c r="D209">
-        <v>399.2204324052767</v>
+        <v>408.8331225821399</v>
       </c>
       <c r="E209">
-        <v>401.9654846191406</v>
+        <v>413.26513671875</v>
       </c>
       <c r="F209">
-        <v>20203000</v>
+        <v>19414300</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -6239,22 +6239,22 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B210">
-        <v>403.3030798438404</v>
+        <v>414.0536940689925</v>
       </c>
       <c r="C210">
-        <v>407.3158362110672</v>
+        <v>416.9684539100364</v>
       </c>
       <c r="D210">
-        <v>401.5362753425401</v>
+        <v>411.7079464774689</v>
       </c>
       <c r="E210">
-        <v>405.2894897460938</v>
+        <v>416.1099853515625</v>
       </c>
       <c r="F210">
-        <v>19276700</v>
+        <v>18267000</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -6265,25 +6265,25 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B211">
-        <v>406.3276141642008</v>
+        <v>419.7999877929688</v>
       </c>
       <c r="C211">
-        <v>408.0245677048975</v>
+        <v>421.1099853515625</v>
       </c>
       <c r="D211">
-        <v>403.5126806044117</v>
+        <v>417.6600036621094</v>
       </c>
       <c r="E211">
-        <v>406.0780639648438</v>
+        <v>421.0299987792969</v>
       </c>
       <c r="F211">
-        <v>16762900</v>
+        <v>20752100</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -6291,22 +6291,22 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B212">
-        <v>408.8530756322428</v>
+        <v>420.6000061035156</v>
       </c>
       <c r="C212">
-        <v>414.2034479390117</v>
+        <v>421.3399963378906</v>
       </c>
       <c r="D212">
-        <v>408.8331225821399</v>
+        <v>417.2999877929688</v>
       </c>
       <c r="E212">
-        <v>413.26513671875</v>
+        <v>418.4700012207031</v>
       </c>
       <c r="F212">
-        <v>19414300</v>
+        <v>22775600</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -6317,22 +6317,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="B213">
-        <v>414.0536940689925</v>
+        <v>418.9599914550781</v>
       </c>
       <c r="C213">
-        <v>416.9684539100364</v>
+        <v>421.75</v>
       </c>
       <c r="D213">
-        <v>411.7079464774689</v>
+        <v>416.4599914550781</v>
       </c>
       <c r="E213">
-        <v>416.1099853515625</v>
+        <v>421.5299987792969</v>
       </c>
       <c r="F213">
-        <v>18267000</v>
+        <v>15234000</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6343,25 +6343,25 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="B214">
-        <v>419.7999877929688</v>
+        <v>421.7000122070312</v>
       </c>
       <c r="C214">
-        <v>421.1099853515625</v>
+        <v>425.8599853515625</v>
       </c>
       <c r="D214">
-        <v>417.6600036621094</v>
+        <v>421.6400146484375</v>
       </c>
       <c r="E214">
-        <v>421.0299987792969</v>
+        <v>424.7999877929688</v>
       </c>
       <c r="F214">
-        <v>20752100</v>
+        <v>16387600</v>
       </c>
       <c r="G214">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -6369,22 +6369,22 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="B215">
-        <v>420.6000061035156</v>
+        <v>424.0799865722656</v>
       </c>
       <c r="C215">
-        <v>421.3399963378906</v>
+        <v>426.3999938964844</v>
       </c>
       <c r="D215">
-        <v>417.2999877929688</v>
+        <v>421.7200012207031</v>
       </c>
       <c r="E215">
-        <v>418.4700012207031</v>
+        <v>424.1400146484375</v>
       </c>
       <c r="F215">
-        <v>22775600</v>
+        <v>16067300</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -6395,22 +6395,22 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B216">
-        <v>418.9599914550781</v>
+        <v>424.3599853515625</v>
       </c>
       <c r="C216">
-        <v>421.75</v>
+        <v>426.7900085449219</v>
       </c>
       <c r="D216">
-        <v>416.4599914550781</v>
+        <v>414.6099853515625</v>
       </c>
       <c r="E216">
-        <v>421.5299987792969</v>
+        <v>415.5499877929688</v>
       </c>
       <c r="F216">
-        <v>15234000</v>
+        <v>19361900</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -6421,22 +6421,22 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B217">
-        <v>421.7000122070312</v>
+        <v>416.9800109863281</v>
       </c>
       <c r="C217">
-        <v>425.8599853515625</v>
+        <v>419.260009765625</v>
       </c>
       <c r="D217">
-        <v>421.6400146484375</v>
+        <v>412.0899963378906</v>
       </c>
       <c r="E217">
-        <v>424.7999877929688</v>
+        <v>416.7900085449219</v>
       </c>
       <c r="F217">
-        <v>16387600</v>
+        <v>18493800</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -6447,22 +6447,22 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="B218">
-        <v>424.0799865722656</v>
+        <v>416.3699951171875</v>
       </c>
       <c r="C218">
-        <v>426.3999938964844</v>
+        <v>417.2799987792969</v>
       </c>
       <c r="D218">
-        <v>421.7200012207031</v>
+        <v>411.3399963378906</v>
       </c>
       <c r="E218">
-        <v>424.1400146484375</v>
+        <v>413.489990234375</v>
       </c>
       <c r="F218">
-        <v>16067300</v>
+        <v>13152800</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -6473,22 +6473,22 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="B219">
-        <v>424.3599853515625</v>
+        <v>412.8599853515625</v>
       </c>
       <c r="C219">
-        <v>426.7900085449219</v>
+        <v>414.3599853515625</v>
       </c>
       <c r="D219">
-        <v>414.6099853515625</v>
+        <v>410.25</v>
       </c>
       <c r="E219">
-        <v>415.5499877929688</v>
+        <v>413.8399963378906</v>
       </c>
       <c r="F219">
-        <v>19361900</v>
+        <v>13492900</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -6499,22 +6499,22 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="B220">
-        <v>416.9800109863281</v>
+        <v>414.8800048828125</v>
       </c>
       <c r="C220">
-        <v>419.260009765625</v>
+        <v>415</v>
       </c>
       <c r="D220">
-        <v>412.0899963378906</v>
+        <v>407.3099975585938</v>
       </c>
       <c r="E220">
-        <v>416.7900085449219</v>
+        <v>410.6000061035156</v>
       </c>
       <c r="F220">
-        <v>18493800</v>
+        <v>14882700</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -6525,22 +6525,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B221">
-        <v>416.3699951171875</v>
+        <v>414.9400024414062</v>
       </c>
       <c r="C221">
-        <v>417.2799987792969</v>
+        <v>422.0499877929688</v>
       </c>
       <c r="D221">
-        <v>411.3399963378906</v>
+        <v>410.6000061035156</v>
       </c>
       <c r="E221">
-        <v>413.489990234375</v>
+        <v>413.1199951171875</v>
       </c>
       <c r="F221">
-        <v>13152800</v>
+        <v>17045200</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -6551,22 +6551,22 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B222">
-        <v>412.8599853515625</v>
+        <v>415.6000061035156</v>
       </c>
       <c r="C222">
-        <v>414.3599853515625</v>
+        <v>417.489990234375</v>
       </c>
       <c r="D222">
-        <v>410.25</v>
+        <v>412.1300048828125</v>
       </c>
       <c r="E222">
-        <v>413.8399963378906</v>
+        <v>417.1400146484375</v>
       </c>
       <c r="F222">
-        <v>13492900</v>
+        <v>24308300</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -6577,22 +6577,22 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2">
-        <v>45532</v>
+        <v>45538</v>
       </c>
       <c r="B223">
-        <v>414.8800048828125</v>
+        <v>417.9100036621094</v>
       </c>
       <c r="C223">
-        <v>415</v>
+        <v>419.8800048828125</v>
       </c>
       <c r="D223">
-        <v>407.3099975585938</v>
+        <v>407.0299987792969</v>
       </c>
       <c r="E223">
-        <v>410.6000061035156</v>
+        <v>409.4400024414062</v>
       </c>
       <c r="F223">
-        <v>14882700</v>
+        <v>20313600</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -6603,22 +6603,22 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="B224">
-        <v>414.9400024414062</v>
+        <v>405.9100036621094</v>
       </c>
       <c r="C224">
-        <v>422.0499877929688</v>
+        <v>411.239990234375</v>
       </c>
       <c r="D224">
-        <v>410.6000061035156</v>
+        <v>404.3699951171875</v>
       </c>
       <c r="E224">
-        <v>413.1199951171875</v>
+        <v>408.8999938964844</v>
       </c>
       <c r="F224">
-        <v>17045200</v>
+        <v>15135800</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -6629,22 +6629,22 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="B225">
-        <v>415.6000061035156</v>
+        <v>407.6199951171875</v>
       </c>
       <c r="C225">
-        <v>417.489990234375</v>
+        <v>413.1000061035156</v>
       </c>
       <c r="D225">
-        <v>412.1300048828125</v>
+        <v>406.1300048828125</v>
       </c>
       <c r="E225">
-        <v>417.1400146484375</v>
+        <v>408.3900146484375</v>
       </c>
       <c r="F225">
-        <v>24308300</v>
+        <v>14195500</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -6655,22 +6655,22 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="2">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B226">
-        <v>417.9100036621094</v>
+        <v>409.0599975585938</v>
       </c>
       <c r="C226">
-        <v>419.8800048828125</v>
+        <v>410.6499938964844</v>
       </c>
       <c r="D226">
-        <v>407.0299987792969</v>
+        <v>400.7999877929688</v>
       </c>
       <c r="E226">
-        <v>409.4400024414062</v>
+        <v>401.7000122070312</v>
       </c>
       <c r="F226">
-        <v>20313600</v>
+        <v>19609500</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -6681,22 +6681,22 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="B227">
-        <v>405.9100036621094</v>
+        <v>407.239990234375</v>
       </c>
       <c r="C227">
-        <v>411.239990234375</v>
+        <v>408.6499938964844</v>
       </c>
       <c r="D227">
-        <v>404.3699951171875</v>
+        <v>402.1499938964844</v>
       </c>
       <c r="E227">
-        <v>408.8999938964844</v>
+        <v>405.7200012207031</v>
       </c>
       <c r="F227">
-        <v>15135800</v>
+        <v>15295100</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -6707,22 +6707,22 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2">
-        <v>45540</v>
+        <v>45545</v>
       </c>
       <c r="B228">
-        <v>407.6199951171875</v>
+        <v>408.2000122070312</v>
       </c>
       <c r="C228">
-        <v>413.1000061035156</v>
+        <v>416.3299865722656</v>
       </c>
       <c r="D228">
-        <v>406.1300048828125</v>
+        <v>407.7000122070312</v>
       </c>
       <c r="E228">
-        <v>408.3900146484375</v>
+        <v>414.2000122070312</v>
       </c>
       <c r="F228">
-        <v>14195500</v>
+        <v>19594300</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6733,22 +6733,22 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="2">
-        <v>45541</v>
+        <v>45546</v>
       </c>
       <c r="B229">
-        <v>409.0599975585938</v>
+        <v>415.5</v>
       </c>
       <c r="C229">
-        <v>410.6499938964844</v>
+        <v>423.989990234375</v>
       </c>
       <c r="D229">
-        <v>400.7999877929688</v>
+        <v>409.5799865722656</v>
       </c>
       <c r="E229">
-        <v>401.7000122070312</v>
+        <v>423.0400085449219</v>
       </c>
       <c r="F229">
-        <v>19609500</v>
+        <v>19266900</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6759,22 +6759,22 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="2">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B230">
-        <v>407.239990234375</v>
+        <v>423.3099975585938</v>
       </c>
       <c r="C230">
-        <v>408.6499938964844</v>
+        <v>427.3699951171875</v>
       </c>
       <c r="D230">
-        <v>402.1499938964844</v>
+        <v>419.75</v>
       </c>
       <c r="E230">
-        <v>405.7200012207031</v>
+        <v>427</v>
       </c>
       <c r="F230">
-        <v>15295100</v>
+        <v>17418800</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6785,22 +6785,22 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="2">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B231">
-        <v>408.2000122070312</v>
+        <v>425.8299865722656</v>
       </c>
       <c r="C231">
-        <v>416.3299865722656</v>
+        <v>431.8299865722656</v>
       </c>
       <c r="D231">
-        <v>407.7000122070312</v>
+        <v>425.4599914550781</v>
       </c>
       <c r="E231">
-        <v>414.2000122070312</v>
+        <v>430.5899963378906</v>
       </c>
       <c r="F231">
-        <v>19594300</v>
+        <v>15874600</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6811,22 +6811,22 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="2">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="B232">
-        <v>415.5</v>
+        <v>430.6000061035156</v>
       </c>
       <c r="C232">
-        <v>423.989990234375</v>
+        <v>433.5299987792969</v>
       </c>
       <c r="D232">
-        <v>409.5799865722656</v>
+        <v>428.2200012207031</v>
       </c>
       <c r="E232">
-        <v>423.0400085449219</v>
+        <v>431.3399963378906</v>
       </c>
       <c r="F232">
-        <v>19266900</v>
+        <v>13834700</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6837,22 +6837,22 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="B233">
-        <v>423.3099975585938</v>
+        <v>440.2300109863281</v>
       </c>
       <c r="C233">
-        <v>427.3699951171875</v>
+        <v>441.8500061035156</v>
       </c>
       <c r="D233">
-        <v>419.75</v>
+        <v>432.2699890136719</v>
       </c>
       <c r="E233">
-        <v>427</v>
+        <v>435.1499938964844</v>
       </c>
       <c r="F233">
-        <v>17418800</v>
+        <v>18874200</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6863,22 +6863,22 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="B234">
-        <v>425.8299865722656</v>
+        <v>435</v>
       </c>
       <c r="C234">
-        <v>431.8299865722656</v>
+        <v>436.0299987792969</v>
       </c>
       <c r="D234">
-        <v>425.4599914550781</v>
+        <v>430.4100036621094</v>
       </c>
       <c r="E234">
-        <v>430.5899963378906</v>
+        <v>430.8099975585938</v>
       </c>
       <c r="F234">
-        <v>15874600</v>
+        <v>18898000</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6889,22 +6889,22 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B235">
-        <v>430.6000061035156</v>
+        <v>441.2300109863281</v>
       </c>
       <c r="C235">
-        <v>433.5299987792969</v>
+        <v>441.5</v>
       </c>
       <c r="D235">
-        <v>428.2200012207031</v>
+        <v>436.8999938964844</v>
       </c>
       <c r="E235">
-        <v>431.3399963378906</v>
+        <v>438.6900024414062</v>
       </c>
       <c r="F235">
-        <v>13834700</v>
+        <v>21706600</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6915,22 +6915,22 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B236">
-        <v>440.2300109863281</v>
+        <v>437.2200012207031</v>
       </c>
       <c r="C236">
-        <v>441.8500061035156</v>
+        <v>439.239990234375</v>
       </c>
       <c r="D236">
-        <v>432.2699890136719</v>
+        <v>434.2200012207031</v>
       </c>
       <c r="E236">
-        <v>435.1499938964844</v>
+        <v>435.2699890136719</v>
       </c>
       <c r="F236">
-        <v>18874200</v>
+        <v>55167100</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6941,22 +6941,22 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B237">
-        <v>435</v>
+        <v>434.2799987792969</v>
       </c>
       <c r="C237">
-        <v>436.0299987792969</v>
+        <v>436.4599914550781</v>
       </c>
       <c r="D237">
-        <v>430.4100036621094</v>
+        <v>430.3900146484375</v>
       </c>
       <c r="E237">
-        <v>430.8099975585938</v>
+        <v>433.510009765625</v>
       </c>
       <c r="F237">
-        <v>18898000</v>
+        <v>15128900</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6967,22 +6967,22 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B238">
-        <v>441.2300109863281</v>
+        <v>433</v>
       </c>
       <c r="C238">
-        <v>441.5</v>
+        <v>433.3500061035156</v>
       </c>
       <c r="D238">
-        <v>436.8999938964844</v>
+        <v>426.1000061035156</v>
       </c>
       <c r="E238">
-        <v>438.6900024414062</v>
+        <v>429.1700134277344</v>
       </c>
       <c r="F238">
-        <v>21706600</v>
+        <v>17015800</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6993,22 +6993,22 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2">
-        <v>45555</v>
+        <v>45560</v>
       </c>
       <c r="B239">
-        <v>437.2200012207031</v>
+        <v>429.8299865722656</v>
       </c>
       <c r="C239">
-        <v>439.239990234375</v>
+        <v>433.1199951171875</v>
       </c>
       <c r="D239">
-        <v>434.2200012207031</v>
+        <v>428.5700073242188</v>
       </c>
       <c r="E239">
-        <v>435.2699890136719</v>
+        <v>432.1099853515625</v>
       </c>
       <c r="F239">
-        <v>55167100</v>
+        <v>13396400</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7019,22 +7019,22 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B240">
-        <v>434.2799987792969</v>
+        <v>435.0899963378906</v>
       </c>
       <c r="C240">
-        <v>436.4599914550781</v>
+        <v>435.2999877929688</v>
       </c>
       <c r="D240">
-        <v>430.3900146484375</v>
+        <v>429.1300048828125</v>
       </c>
       <c r="E240">
-        <v>433.510009765625</v>
+        <v>431.3099975585938</v>
       </c>
       <c r="F240">
-        <v>15128900</v>
+        <v>14492000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7045,22 +7045,22 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B241">
-        <v>433</v>
+        <v>431.5199890136719</v>
       </c>
       <c r="C241">
-        <v>433.3500061035156</v>
+        <v>431.8500061035156</v>
       </c>
       <c r="D241">
-        <v>426.1000061035156</v>
+        <v>427.4700012207031</v>
       </c>
       <c r="E241">
-        <v>429.1700134277344</v>
+        <v>428.0199890136719</v>
       </c>
       <c r="F241">
-        <v>17015800</v>
+        <v>14896100</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7071,22 +7071,22 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2">
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="B242">
-        <v>429.8299865722656</v>
+        <v>428.2099914550781</v>
       </c>
       <c r="C242">
-        <v>433.1199951171875</v>
+        <v>430.4200134277344</v>
       </c>
       <c r="D242">
-        <v>428.5700073242188</v>
+        <v>425.3699951171875</v>
       </c>
       <c r="E242">
-        <v>432.1099853515625</v>
+        <v>430.2999877929688</v>
       </c>
       <c r="F242">
-        <v>13396400</v>
+        <v>16807300</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7097,22 +7097,22 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="2">
-        <v>45561</v>
+        <v>45566</v>
       </c>
       <c r="B243">
-        <v>435.0899963378906</v>
+        <v>428.4500122070312</v>
       </c>
       <c r="C243">
-        <v>435.2999877929688</v>
+        <v>428.4800109863281</v>
       </c>
       <c r="D243">
-        <v>429.1300048828125</v>
+        <v>418.8099975585938</v>
       </c>
       <c r="E243">
-        <v>431.3099975585938</v>
+        <v>420.6900024414062</v>
       </c>
       <c r="F243">
-        <v>14492000</v>
+        <v>19092900</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7123,22 +7123,22 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2">
-        <v>45562</v>
+        <v>45567</v>
       </c>
       <c r="B244">
-        <v>431.5199890136719</v>
+        <v>422.5799865722656</v>
       </c>
       <c r="C244">
-        <v>431.8500061035156</v>
+        <v>422.8200073242188</v>
       </c>
       <c r="D244">
-        <v>427.4700012207031</v>
+        <v>416.7099914550781</v>
       </c>
       <c r="E244">
-        <v>428.0199890136719</v>
+        <v>417.1300048828125</v>
       </c>
       <c r="F244">
-        <v>14896100</v>
+        <v>16582300</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7149,22 +7149,22 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B245">
-        <v>428.2099914550781</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="C245">
-        <v>430.4200134277344</v>
+        <v>419.5499877929688</v>
       </c>
       <c r="D245">
-        <v>425.3699951171875</v>
+        <v>414.2900085449219</v>
       </c>
       <c r="E245">
-        <v>430.2999877929688</v>
+        <v>416.5400085449219</v>
       </c>
       <c r="F245">
-        <v>16807300</v>
+        <v>13686400</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7175,22 +7175,22 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B246">
-        <v>428.4500122070312</v>
+        <v>418.239990234375</v>
       </c>
       <c r="C246">
-        <v>428.4800109863281</v>
+        <v>419.75</v>
       </c>
       <c r="D246">
-        <v>418.8099975585938</v>
+        <v>414.9700012207031</v>
       </c>
       <c r="E246">
-        <v>420.6900024414062</v>
+        <v>416.0599975585938</v>
       </c>
       <c r="F246">
-        <v>19092900</v>
+        <v>19169700</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7201,22 +7201,22 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="B247">
-        <v>422.5799865722656</v>
+        <v>416</v>
       </c>
       <c r="C247">
-        <v>422.8200073242188</v>
+        <v>417.1099853515625</v>
       </c>
       <c r="D247">
-        <v>416.7099914550781</v>
+        <v>409</v>
       </c>
       <c r="E247">
-        <v>417.1300048828125</v>
+        <v>409.5400085449219</v>
       </c>
       <c r="F247">
-        <v>16582300</v>
+        <v>20919800</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7227,22 +7227,22 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="B248">
-        <v>417.6300048828125</v>
+        <v>410.8999938964844</v>
       </c>
       <c r="C248">
-        <v>419.5499877929688</v>
+        <v>415.6600036621094</v>
       </c>
       <c r="D248">
-        <v>414.2900085449219</v>
+        <v>408.1700134277344</v>
       </c>
       <c r="E248">
-        <v>416.5400085449219</v>
+        <v>414.7099914550781</v>
       </c>
       <c r="F248">
-        <v>13686400</v>
+        <v>19229300</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7253,22 +7253,22 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="B249">
-        <v>418.239990234375</v>
+        <v>415.8599853515625</v>
       </c>
       <c r="C249">
-        <v>419.75</v>
+        <v>420.3800048828125</v>
       </c>
       <c r="D249">
-        <v>414.9700012207031</v>
+        <v>414.2999877929688</v>
       </c>
       <c r="E249">
-        <v>416.0599975585938</v>
+        <v>417.4599914550781</v>
       </c>
       <c r="F249">
-        <v>19169700</v>
+        <v>14974300</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7279,22 +7279,22 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B250">
-        <v>416</v>
+        <v>415.2300109863281</v>
       </c>
       <c r="C250">
-        <v>417.1099853515625</v>
+        <v>417.3500061035156</v>
       </c>
       <c r="D250">
-        <v>409</v>
+        <v>413.1499938964844</v>
       </c>
       <c r="E250">
-        <v>409.5400085449219</v>
+        <v>415.8399963378906</v>
       </c>
       <c r="F250">
-        <v>20919800</v>
+        <v>13848400</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7305,22 +7305,22 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B251">
-        <v>410.8999938964844</v>
+        <v>416.1400146484375</v>
       </c>
       <c r="C251">
-        <v>415.6600036621094</v>
+        <v>417.1300048828125</v>
       </c>
       <c r="D251">
-        <v>408.1700134277344</v>
+        <v>413.25</v>
       </c>
       <c r="E251">
-        <v>414.7099914550781</v>
+        <v>416.3200073242188</v>
       </c>
       <c r="F251">
-        <v>19229300</v>
+        <v>14144900</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7331,22 +7331,22 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B252">
-        <v>415.8599853515625</v>
+        <v>417.7699890136719</v>
       </c>
       <c r="C252">
-        <v>420.3800048828125</v>
+        <v>424.0400085449219</v>
       </c>
       <c r="D252">
-        <v>414.2999877929688</v>
+        <v>417.5199890136719</v>
       </c>
       <c r="E252">
-        <v>417.4599914550781</v>
+        <v>419.1400146484375</v>
       </c>
       <c r="F252">
-        <v>14974300</v>
+        <v>16653100</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7357,22 +7357,22 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B253">
-        <v>415.2300109863281</v>
+        <v>422.1799926757812</v>
       </c>
       <c r="C253">
-        <v>417.3500061035156</v>
+        <v>422.4800109863281</v>
       </c>
       <c r="D253">
-        <v>413.1499938964844</v>
+        <v>415.260009765625</v>
       </c>
       <c r="E253">
-        <v>415.8399963378906</v>
+        <v>418.739990234375</v>
       </c>
       <c r="F253">
-        <v>13807800</v>
+        <v>18885000</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>35.21084</v>
+        <v>35.426395</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -7422,7 +7422,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>11.514329</v>
+        <v>11.594627</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -7433,7 +7433,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7466,7 +7466,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -7556,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0.008</v>
+        <v>0.007900001</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -7633,7 +7633,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.73697996</v>
+        <v>0.73713994</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
